--- a/Server/数据.xlsx
+++ b/Server/数据.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEBBB0D8-5032-47CC-8B82-BF38F5780510}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66DC4F89-5EE0-4ECC-A2D7-4485501A6564}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -112,7 +112,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11970" uniqueCount="4754">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12395" uniqueCount="4754">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -15260,7 +15260,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="E1" sqref="E1:J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -64388,10 +64388,10 @@
   <dimension ref="A1:J657"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B77" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B59" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I88" sqref="I88"/>
+      <selection pane="bottomRight" activeCell="J80" sqref="J80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -64652,7 +64652,9 @@
       <c r="H8" s="17">
         <v>20</v>
       </c>
-      <c r="I8" s="18"/>
+      <c r="I8" s="18" t="s">
+        <v>4749</v>
+      </c>
       <c r="J8" s="18" t="s">
         <v>15</v>
       </c>
@@ -64682,7 +64684,9 @@
       <c r="H9" s="17">
         <v>120</v>
       </c>
-      <c r="I9" s="18"/>
+      <c r="I9" s="18" t="s">
+        <v>4749</v>
+      </c>
       <c r="J9" s="18" t="s">
         <v>17</v>
       </c>
@@ -64712,7 +64716,9 @@
       <c r="H10" s="17">
         <v>20</v>
       </c>
-      <c r="I10" s="18"/>
+      <c r="I10" s="18" t="s">
+        <v>4749</v>
+      </c>
       <c r="J10" s="18" t="s">
         <v>19</v>
       </c>
@@ -64742,7 +64748,9 @@
       <c r="H11" s="17">
         <v>30</v>
       </c>
-      <c r="I11" s="18"/>
+      <c r="I11" s="18" t="s">
+        <v>4749</v>
+      </c>
       <c r="J11" s="18" t="s">
         <v>4584</v>
       </c>
@@ -64772,7 +64780,9 @@
       <c r="H12" s="17">
         <v>30</v>
       </c>
-      <c r="I12" s="18"/>
+      <c r="I12" s="18" t="s">
+        <v>4749</v>
+      </c>
       <c r="J12" s="18" t="s">
         <v>22</v>
       </c>
@@ -64802,7 +64812,9 @@
       <c r="H13" s="17">
         <v>30</v>
       </c>
-      <c r="I13" s="18"/>
+      <c r="I13" s="18" t="s">
+        <v>4749</v>
+      </c>
       <c r="J13" s="18" t="s">
         <v>24</v>
       </c>
@@ -64832,7 +64844,9 @@
       <c r="H14" s="17">
         <v>120</v>
       </c>
-      <c r="I14" s="18"/>
+      <c r="I14" s="18" t="s">
+        <v>4749</v>
+      </c>
       <c r="J14" s="18" t="s">
         <v>26</v>
       </c>
@@ -64862,7 +64876,9 @@
       <c r="H15" s="17">
         <v>40</v>
       </c>
-      <c r="I15" s="18"/>
+      <c r="I15" s="18" t="s">
+        <v>4749</v>
+      </c>
       <c r="J15" s="18" t="s">
         <v>28</v>
       </c>
@@ -64892,7 +64908,9 @@
       <c r="H16" s="17">
         <v>24</v>
       </c>
-      <c r="I16" s="18"/>
+      <c r="I16" s="18" t="s">
+        <v>4749</v>
+      </c>
       <c r="J16" s="18" t="s">
         <v>30</v>
       </c>
@@ -64922,7 +64940,9 @@
       <c r="H17" s="17">
         <v>30</v>
       </c>
-      <c r="I17" s="18"/>
+      <c r="I17" s="18" t="s">
+        <v>4749</v>
+      </c>
       <c r="J17" s="18" t="s">
         <v>32</v>
       </c>
@@ -64952,7 +64972,9 @@
       <c r="H18" s="17">
         <v>120</v>
       </c>
-      <c r="I18" s="18"/>
+      <c r="I18" s="18" t="s">
+        <v>4749</v>
+      </c>
       <c r="J18" s="18" t="s">
         <v>34</v>
       </c>
@@ -64982,7 +65004,9 @@
       <c r="H19" s="17">
         <v>18</v>
       </c>
-      <c r="I19" s="18"/>
+      <c r="I19" s="18" t="s">
+        <v>4749</v>
+      </c>
       <c r="J19" s="18" t="s">
         <v>36</v>
       </c>
@@ -65012,7 +65036,9 @@
       <c r="H20" s="17">
         <v>40</v>
       </c>
-      <c r="I20" s="18"/>
+      <c r="I20" s="18" t="s">
+        <v>4749</v>
+      </c>
       <c r="J20" s="18" t="s">
         <v>38</v>
       </c>
@@ -65042,7 +65068,9 @@
       <c r="H21" s="17">
         <v>30</v>
       </c>
-      <c r="I21" s="18"/>
+      <c r="I21" s="18" t="s">
+        <v>4749</v>
+      </c>
       <c r="J21" s="18" t="s">
         <v>40</v>
       </c>
@@ -65072,7 +65100,9 @@
       <c r="H22" s="17">
         <v>30</v>
       </c>
-      <c r="I22" s="18"/>
+      <c r="I22" s="18" t="s">
+        <v>4749</v>
+      </c>
       <c r="J22" s="18" t="s">
         <v>42</v>
       </c>
@@ -65102,7 +65132,9 @@
       <c r="H23" s="17">
         <v>60</v>
       </c>
-      <c r="I23" s="18"/>
+      <c r="I23" s="18" t="s">
+        <v>4749</v>
+      </c>
       <c r="J23" s="18" t="s">
         <v>44</v>
       </c>
@@ -65132,7 +65164,9 @@
       <c r="H24" s="17">
         <v>40</v>
       </c>
-      <c r="I24" s="18"/>
+      <c r="I24" s="18" t="s">
+        <v>4749</v>
+      </c>
       <c r="J24" s="18" t="s">
         <v>46</v>
       </c>
@@ -65162,7 +65196,9 @@
       <c r="H25" s="17">
         <v>40</v>
       </c>
-      <c r="I25" s="18"/>
+      <c r="I25" s="18" t="s">
+        <v>4749</v>
+      </c>
       <c r="J25" s="18" t="s">
         <v>48</v>
       </c>
@@ -65192,7 +65228,9 @@
       <c r="H26" s="17">
         <v>20</v>
       </c>
-      <c r="I26" s="18"/>
+      <c r="I26" s="18" t="s">
+        <v>4749</v>
+      </c>
       <c r="J26" s="18" t="s">
         <v>50</v>
       </c>
@@ -65222,7 +65260,9 @@
       <c r="H27" s="17">
         <v>30</v>
       </c>
-      <c r="I27" s="18"/>
+      <c r="I27" s="18" t="s">
+        <v>4749</v>
+      </c>
       <c r="J27" s="18" t="s">
         <v>52</v>
       </c>
@@ -65252,7 +65292,9 @@
       <c r="H28" s="17">
         <v>60</v>
       </c>
-      <c r="I28" s="18"/>
+      <c r="I28" s="18" t="s">
+        <v>4749</v>
+      </c>
       <c r="J28" s="18" t="s">
         <v>54</v>
       </c>
@@ -65282,7 +65324,9 @@
       <c r="H29" s="17">
         <v>120</v>
       </c>
-      <c r="I29" s="18"/>
+      <c r="I29" s="18" t="s">
+        <v>4749</v>
+      </c>
       <c r="J29" s="18" t="s">
         <v>56</v>
       </c>
@@ -65312,7 +65356,9 @@
       <c r="H30" s="17">
         <v>60</v>
       </c>
-      <c r="I30" s="18"/>
+      <c r="I30" s="18" t="s">
+        <v>4749</v>
+      </c>
       <c r="J30" s="18" t="s">
         <v>58</v>
       </c>
@@ -65342,7 +65388,9 @@
       <c r="H31" s="17">
         <v>60</v>
       </c>
-      <c r="I31" s="18"/>
+      <c r="I31" s="18" t="s">
+        <v>4749</v>
+      </c>
       <c r="J31" s="18" t="s">
         <v>60</v>
       </c>
@@ -65372,7 +65420,9 @@
       <c r="H32" s="17">
         <v>40</v>
       </c>
-      <c r="I32" s="18"/>
+      <c r="I32" s="18" t="s">
+        <v>4749</v>
+      </c>
       <c r="J32" s="18" t="s">
         <v>62</v>
       </c>
@@ -65402,7 +65452,9 @@
       <c r="H33" s="17">
         <v>18</v>
       </c>
-      <c r="I33" s="18"/>
+      <c r="I33" s="18" t="s">
+        <v>4749</v>
+      </c>
       <c r="J33" s="18" t="s">
         <v>64</v>
       </c>
@@ -65432,7 +65484,9 @@
       <c r="H34" s="17">
         <v>30</v>
       </c>
-      <c r="I34" s="18"/>
+      <c r="I34" s="18" t="s">
+        <v>4749</v>
+      </c>
       <c r="J34" s="18" t="s">
         <v>2597</v>
       </c>
@@ -65462,7 +65516,9 @@
       <c r="H35" s="17">
         <v>60</v>
       </c>
-      <c r="I35" s="18"/>
+      <c r="I35" s="18" t="s">
+        <v>4749</v>
+      </c>
       <c r="J35" s="18" t="s">
         <v>67</v>
       </c>
@@ -65492,7 +65548,9 @@
       <c r="H36" s="17">
         <v>120</v>
       </c>
-      <c r="I36" s="18"/>
+      <c r="I36" s="18" t="s">
+        <v>4749</v>
+      </c>
       <c r="J36" s="18" t="s">
         <v>69</v>
       </c>
@@ -65522,7 +65580,9 @@
       <c r="H37" s="17">
         <v>40</v>
       </c>
-      <c r="I37" s="18"/>
+      <c r="I37" s="18" t="s">
+        <v>4749</v>
+      </c>
       <c r="J37" s="18" t="s">
         <v>71</v>
       </c>
@@ -65552,7 +65612,9 @@
       <c r="H38" s="17">
         <v>40</v>
       </c>
-      <c r="I38" s="18"/>
+      <c r="I38" s="18" t="s">
+        <v>4749</v>
+      </c>
       <c r="J38" s="18" t="s">
         <v>73</v>
       </c>
@@ -65582,7 +65644,9 @@
       <c r="H39" s="17">
         <v>60</v>
       </c>
-      <c r="I39" s="18"/>
+      <c r="I39" s="18" t="s">
+        <v>4749</v>
+      </c>
       <c r="J39" s="18" t="s">
         <v>2620</v>
       </c>
@@ -65612,7 +65676,9 @@
       <c r="H40" s="17">
         <v>30</v>
       </c>
-      <c r="I40" s="18"/>
+      <c r="I40" s="18" t="s">
+        <v>4749</v>
+      </c>
       <c r="J40" s="18" t="s">
         <v>75</v>
       </c>
@@ -65642,7 +65708,9 @@
       <c r="H41" s="17">
         <v>600</v>
       </c>
-      <c r="I41" s="18"/>
+      <c r="I41" s="18" t="s">
+        <v>4749</v>
+      </c>
       <c r="J41" s="18" t="s">
         <v>2598</v>
       </c>
@@ -65672,7 +65740,9 @@
       <c r="H42" s="17">
         <v>40</v>
       </c>
-      <c r="I42" s="18"/>
+      <c r="I42" s="18" t="s">
+        <v>4749</v>
+      </c>
       <c r="J42" s="18" t="s">
         <v>2621</v>
       </c>
@@ -65702,7 +65772,9 @@
       <c r="H43" s="17">
         <v>15</v>
       </c>
-      <c r="I43" s="18"/>
+      <c r="I43" s="18" t="s">
+        <v>4749</v>
+      </c>
       <c r="J43" s="18" t="s">
         <v>2622</v>
       </c>
@@ -65732,7 +65804,9 @@
       <c r="H44" s="17">
         <v>30</v>
       </c>
-      <c r="I44" s="18"/>
+      <c r="I44" s="18" t="s">
+        <v>4749</v>
+      </c>
       <c r="J44" s="18" t="s">
         <v>80</v>
       </c>
@@ -65762,7 +65836,9 @@
       <c r="H45" s="17">
         <v>40</v>
       </c>
-      <c r="I45" s="18"/>
+      <c r="I45" s="18" t="s">
+        <v>4749</v>
+      </c>
       <c r="J45" s="18" t="s">
         <v>2623</v>
       </c>
@@ -65792,7 +65868,9 @@
       <c r="H46" s="17">
         <v>30</v>
       </c>
-      <c r="I46" s="18"/>
+      <c r="I46" s="18" t="s">
+        <v>4749</v>
+      </c>
       <c r="J46" s="18" t="s">
         <v>82</v>
       </c>
@@ -65822,7 +65900,9 @@
       <c r="H47" s="17">
         <v>15</v>
       </c>
-      <c r="I47" s="18"/>
+      <c r="I47" s="18" t="s">
+        <v>4749</v>
+      </c>
       <c r="J47" s="18" t="s">
         <v>84</v>
       </c>
@@ -65852,7 +65932,9 @@
       <c r="H48" s="17">
         <v>120</v>
       </c>
-      <c r="I48" s="18"/>
+      <c r="I48" s="18" t="s">
+        <v>4749</v>
+      </c>
       <c r="J48" s="18" t="s">
         <v>86</v>
       </c>
@@ -65882,7 +65964,9 @@
       <c r="H49" s="17">
         <v>60</v>
       </c>
-      <c r="I49" s="18"/>
+      <c r="I49" s="18" t="s">
+        <v>4749</v>
+      </c>
       <c r="J49" s="18" t="s">
         <v>88</v>
       </c>
@@ -65912,7 +65996,9 @@
       <c r="H50" s="17">
         <v>30</v>
       </c>
-      <c r="I50" s="18"/>
+      <c r="I50" s="18" t="s">
+        <v>4749</v>
+      </c>
       <c r="J50" s="18" t="s">
         <v>2451</v>
       </c>
@@ -65942,7 +66028,9 @@
       <c r="H51" s="17">
         <v>60</v>
       </c>
-      <c r="I51" s="18"/>
+      <c r="I51" s="18" t="s">
+        <v>4749</v>
+      </c>
       <c r="J51" s="18" t="s">
         <v>2452</v>
       </c>
@@ -65972,7 +66060,9 @@
       <c r="H52" s="17">
         <v>120</v>
       </c>
-      <c r="I52" s="18"/>
+      <c r="I52" s="18" t="s">
+        <v>4749</v>
+      </c>
       <c r="J52" s="18" t="s">
         <v>2624</v>
       </c>
@@ -66002,7 +66092,9 @@
       <c r="H53" s="17">
         <v>30</v>
       </c>
-      <c r="I53" s="18"/>
+      <c r="I53" s="18" t="s">
+        <v>4749</v>
+      </c>
       <c r="J53" s="18" t="s">
         <v>2453</v>
       </c>
@@ -66032,7 +66124,9 @@
       <c r="H54" s="17">
         <v>60</v>
       </c>
-      <c r="I54" s="18"/>
+      <c r="I54" s="18" t="s">
+        <v>4749</v>
+      </c>
       <c r="J54" s="18" t="s">
         <v>94</v>
       </c>
@@ -66062,7 +66156,9 @@
       <c r="H55" s="17">
         <v>24</v>
       </c>
-      <c r="I55" s="18"/>
+      <c r="I55" s="18" t="s">
+        <v>4749</v>
+      </c>
       <c r="J55" s="18" t="s">
         <v>96</v>
       </c>
@@ -66092,7 +66188,9 @@
       <c r="H56" s="17">
         <v>40</v>
       </c>
-      <c r="I56" s="18"/>
+      <c r="I56" s="18" t="s">
+        <v>4749</v>
+      </c>
       <c r="J56" s="18" t="s">
         <v>2454</v>
       </c>
@@ -66122,7 +66220,9 @@
       <c r="H57" s="17">
         <v>60</v>
       </c>
-      <c r="I57" s="18"/>
+      <c r="I57" s="18" t="s">
+        <v>4749</v>
+      </c>
       <c r="J57" s="18" t="s">
         <v>99</v>
       </c>
@@ -66152,7 +66252,9 @@
       <c r="H58" s="17">
         <v>120</v>
       </c>
-      <c r="I58" s="18"/>
+      <c r="I58" s="18" t="s">
+        <v>4749</v>
+      </c>
       <c r="J58" s="18" t="s">
         <v>101</v>
       </c>
@@ -66182,7 +66284,9 @@
       <c r="H59" s="17">
         <v>120</v>
       </c>
-      <c r="I59" s="18"/>
+      <c r="I59" s="18" t="s">
+        <v>4749</v>
+      </c>
       <c r="J59" s="18" t="s">
         <v>103</v>
       </c>
@@ -66212,7 +66316,9 @@
       <c r="H60" s="17">
         <v>30</v>
       </c>
-      <c r="I60" s="18"/>
+      <c r="I60" s="18" t="s">
+        <v>4749</v>
+      </c>
       <c r="J60" s="18" t="s">
         <v>105</v>
       </c>
@@ -66242,7 +66348,9 @@
       <c r="H61" s="17">
         <v>60</v>
       </c>
-      <c r="I61" s="18"/>
+      <c r="I61" s="18" t="s">
+        <v>4749</v>
+      </c>
       <c r="J61" s="18" t="s">
         <v>107</v>
       </c>
@@ -66272,7 +66380,9 @@
       <c r="H62" s="17">
         <v>120</v>
       </c>
-      <c r="I62" s="18"/>
+      <c r="I62" s="18" t="s">
+        <v>4749</v>
+      </c>
       <c r="J62" s="18" t="s">
         <v>2625</v>
       </c>
@@ -66302,7 +66412,9 @@
       <c r="H63" s="17">
         <v>30</v>
       </c>
-      <c r="I63" s="18"/>
+      <c r="I63" s="18" t="s">
+        <v>4749</v>
+      </c>
       <c r="J63" s="18" t="s">
         <v>2455</v>
       </c>
@@ -66332,7 +66444,9 @@
       <c r="H64" s="17">
         <v>120</v>
       </c>
-      <c r="I64" s="18"/>
+      <c r="I64" s="18" t="s">
+        <v>4749</v>
+      </c>
       <c r="J64" s="18" t="s">
         <v>111</v>
       </c>
@@ -66362,7 +66476,9 @@
       <c r="H65" s="17">
         <v>60</v>
       </c>
-      <c r="I65" s="18"/>
+      <c r="I65" s="18" t="s">
+        <v>4749</v>
+      </c>
       <c r="J65" s="18" t="s">
         <v>113</v>
       </c>
@@ -66392,7 +66508,9 @@
       <c r="H66" s="17">
         <v>40</v>
       </c>
-      <c r="I66" s="18"/>
+      <c r="I66" s="18" t="s">
+        <v>4749</v>
+      </c>
       <c r="J66" s="18" t="s">
         <v>115</v>
       </c>
@@ -66422,7 +66540,9 @@
       <c r="H67" s="17">
         <v>15</v>
       </c>
-      <c r="I67" s="18"/>
+      <c r="I67" s="18" t="s">
+        <v>4749</v>
+      </c>
       <c r="J67" s="18" t="s">
         <v>2626</v>
       </c>
@@ -66452,7 +66572,9 @@
       <c r="H68" s="17">
         <v>60</v>
       </c>
-      <c r="I68" s="18"/>
+      <c r="I68" s="18" t="s">
+        <v>4749</v>
+      </c>
       <c r="J68" s="18" t="s">
         <v>2456</v>
       </c>
@@ -66482,7 +66604,9 @@
       <c r="H69" s="17">
         <v>60</v>
       </c>
-      <c r="I69" s="18"/>
+      <c r="I69" s="18" t="s">
+        <v>4749</v>
+      </c>
       <c r="J69" s="18" t="s">
         <v>120</v>
       </c>
@@ -66512,7 +66636,9 @@
       <c r="H70" s="17">
         <v>30</v>
       </c>
-      <c r="I70" s="18"/>
+      <c r="I70" s="18" t="s">
+        <v>4749</v>
+      </c>
       <c r="J70" s="18" t="s">
         <v>122</v>
       </c>
@@ -66542,7 +66668,9 @@
       <c r="H71" s="17">
         <v>120</v>
       </c>
-      <c r="I71" s="18"/>
+      <c r="I71" s="18" t="s">
+        <v>4749</v>
+      </c>
       <c r="J71" s="18" t="s">
         <v>124</v>
       </c>
@@ -66572,7 +66700,9 @@
       <c r="H72" s="17">
         <v>30</v>
       </c>
-      <c r="I72" s="18"/>
+      <c r="I72" s="18" t="s">
+        <v>4749</v>
+      </c>
       <c r="J72" s="18" t="s">
         <v>126</v>
       </c>
@@ -66634,7 +66764,9 @@
       <c r="H74" s="17">
         <v>40</v>
       </c>
-      <c r="I74" s="18"/>
+      <c r="I74" s="18" t="s">
+        <v>4749</v>
+      </c>
       <c r="J74" s="18" t="s">
         <v>130</v>
       </c>
@@ -66664,7 +66796,9 @@
       <c r="H75" s="17">
         <v>40</v>
       </c>
-      <c r="I75" s="18"/>
+      <c r="I75" s="18" t="s">
+        <v>4749</v>
+      </c>
       <c r="J75" s="18" t="s">
         <v>2457</v>
       </c>
@@ -66694,7 +66828,9 @@
       <c r="H76" s="17">
         <v>60</v>
       </c>
-      <c r="I76" s="18"/>
+      <c r="I76" s="18" t="s">
+        <v>4749</v>
+      </c>
       <c r="J76" s="18" t="s">
         <v>133</v>
       </c>
@@ -66724,7 +66860,9 @@
       <c r="H77" s="17">
         <v>60</v>
       </c>
-      <c r="I77" s="18"/>
+      <c r="I77" s="18" t="s">
+        <v>4749</v>
+      </c>
       <c r="J77" s="18" t="s">
         <v>135</v>
       </c>
@@ -66754,7 +66892,9 @@
       <c r="H78" s="17">
         <v>60</v>
       </c>
-      <c r="I78" s="18"/>
+      <c r="I78" s="18" t="s">
+        <v>4749</v>
+      </c>
       <c r="J78" s="18" t="s">
         <v>137</v>
       </c>
@@ -66784,7 +66924,9 @@
       <c r="H79" s="17">
         <v>60</v>
       </c>
-      <c r="I79" s="18"/>
+      <c r="I79" s="18" t="s">
+        <v>4749</v>
+      </c>
       <c r="J79" s="18" t="s">
         <v>2458</v>
       </c>
@@ -66814,7 +66956,9 @@
       <c r="H80" s="17">
         <v>120</v>
       </c>
-      <c r="I80" s="18"/>
+      <c r="I80" s="18" t="s">
+        <v>4749</v>
+      </c>
       <c r="J80" s="18" t="s">
         <v>2600</v>
       </c>
@@ -66844,7 +66988,9 @@
       <c r="H81" s="17">
         <v>120</v>
       </c>
-      <c r="I81" s="18"/>
+      <c r="I81" s="18" t="s">
+        <v>4749</v>
+      </c>
       <c r="J81" s="18" t="s">
         <v>2627</v>
       </c>
@@ -66874,7 +67020,9 @@
       <c r="H82" s="17">
         <v>60</v>
       </c>
-      <c r="I82" s="18"/>
+      <c r="I82" s="18" t="s">
+        <v>4749</v>
+      </c>
       <c r="J82" s="18" t="s">
         <v>2459</v>
       </c>
@@ -66904,7 +67052,9 @@
       <c r="H83" s="17">
         <v>40</v>
       </c>
-      <c r="I83" s="18"/>
+      <c r="I83" s="18" t="s">
+        <v>4749</v>
+      </c>
       <c r="J83" s="18" t="s">
         <v>143</v>
       </c>
@@ -66934,7 +67084,9 @@
       <c r="H84" s="17">
         <v>40</v>
       </c>
-      <c r="I84" s="18"/>
+      <c r="I84" s="18" t="s">
+        <v>4749</v>
+      </c>
       <c r="J84" s="18" t="s">
         <v>145</v>
       </c>
@@ -66964,7 +67116,9 @@
       <c r="H85" s="17">
         <v>120</v>
       </c>
-      <c r="I85" s="18"/>
+      <c r="I85" s="18" t="s">
+        <v>4749</v>
+      </c>
       <c r="J85" s="18" t="s">
         <v>2460</v>
       </c>
@@ -66994,7 +67148,9 @@
       <c r="H86" s="17">
         <v>60</v>
       </c>
-      <c r="I86" s="18"/>
+      <c r="I86" s="18" t="s">
+        <v>4749</v>
+      </c>
       <c r="J86" s="18" t="s">
         <v>148</v>
       </c>
@@ -67024,7 +67180,9 @@
       <c r="H87" s="17">
         <v>60</v>
       </c>
-      <c r="I87" s="18"/>
+      <c r="I87" s="18" t="s">
+        <v>4749</v>
+      </c>
       <c r="J87" s="18" t="s">
         <v>150</v>
       </c>
@@ -67054,7 +67212,9 @@
       <c r="H88" s="17">
         <v>40</v>
       </c>
-      <c r="I88" s="18"/>
+      <c r="I88" s="18" t="s">
+        <v>4749</v>
+      </c>
       <c r="J88" s="18" t="s">
         <v>2461</v>
       </c>
@@ -69336,7 +69496,9 @@
       <c r="H164" s="17">
         <v>40</v>
       </c>
-      <c r="I164" s="18"/>
+      <c r="I164" s="18" t="s">
+        <v>4749</v>
+      </c>
       <c r="J164" s="18" t="s">
         <v>264</v>
       </c>
@@ -69366,7 +69528,9 @@
       <c r="H165" s="17">
         <v>24</v>
       </c>
-      <c r="I165" s="18"/>
+      <c r="I165" s="18" t="s">
+        <v>4749</v>
+      </c>
       <c r="J165" s="18" t="s">
         <v>266</v>
       </c>
@@ -69396,7 +69560,9 @@
       <c r="H166" s="17">
         <v>120</v>
       </c>
-      <c r="I166" s="18"/>
+      <c r="I166" s="18" t="s">
+        <v>4749</v>
+      </c>
       <c r="J166" s="18" t="s">
         <v>268</v>
       </c>
@@ -69426,7 +69592,9 @@
       <c r="H167" s="17">
         <v>60</v>
       </c>
-      <c r="I167" s="18"/>
+      <c r="I167" s="18" t="s">
+        <v>4749</v>
+      </c>
       <c r="J167" s="18" t="s">
         <v>270</v>
       </c>
@@ -69456,7 +69624,9 @@
       <c r="H168" s="17">
         <v>40</v>
       </c>
-      <c r="I168" s="18"/>
+      <c r="I168" s="18" t="s">
+        <v>4749</v>
+      </c>
       <c r="J168" s="18" t="s">
         <v>272</v>
       </c>
@@ -69486,7 +69656,9 @@
       <c r="H169" s="17">
         <v>40</v>
       </c>
-      <c r="I169" s="18"/>
+      <c r="I169" s="18" t="s">
+        <v>4749</v>
+      </c>
       <c r="J169" s="18" t="s">
         <v>274</v>
       </c>
@@ -69516,7 +69688,9 @@
       <c r="H170" s="17">
         <v>30</v>
       </c>
-      <c r="I170" s="18"/>
+      <c r="I170" s="18" t="s">
+        <v>4749</v>
+      </c>
       <c r="J170" s="18" t="s">
         <v>276</v>
       </c>
@@ -69546,7 +69720,9 @@
       <c r="H171" s="17">
         <v>60</v>
       </c>
-      <c r="I171" s="18"/>
+      <c r="I171" s="18" t="s">
+        <v>4749</v>
+      </c>
       <c r="J171" s="18" t="s">
         <v>278</v>
       </c>
@@ -69576,7 +69752,9 @@
       <c r="H172" s="17">
         <v>120</v>
       </c>
-      <c r="I172" s="18"/>
+      <c r="I172" s="18" t="s">
+        <v>4749</v>
+      </c>
       <c r="J172" s="18" t="s">
         <v>2522</v>
       </c>
@@ -69606,7 +69784,9 @@
       <c r="H173" s="17">
         <v>40</v>
       </c>
-      <c r="I173" s="18"/>
+      <c r="I173" s="18" t="s">
+        <v>4749</v>
+      </c>
       <c r="J173" s="18" t="s">
         <v>281</v>
       </c>
@@ -69636,7 +69816,9 @@
       <c r="H174" s="17">
         <v>24</v>
       </c>
-      <c r="I174" s="18"/>
+      <c r="I174" s="18" t="s">
+        <v>4749</v>
+      </c>
       <c r="J174" s="18" t="s">
         <v>283</v>
       </c>
@@ -69666,7 +69848,9 @@
       <c r="H175" s="17">
         <v>40</v>
       </c>
-      <c r="I175" s="18"/>
+      <c r="I175" s="18" t="s">
+        <v>4749</v>
+      </c>
       <c r="J175" s="18" t="s">
         <v>285</v>
       </c>
@@ -69696,7 +69880,9 @@
       <c r="H176" s="17">
         <v>40</v>
       </c>
-      <c r="I176" s="18"/>
+      <c r="I176" s="18" t="s">
+        <v>4749</v>
+      </c>
       <c r="J176" s="18" t="s">
         <v>287</v>
       </c>
@@ -69726,7 +69912,9 @@
       <c r="H177" s="17">
         <v>120</v>
       </c>
-      <c r="I177" s="18"/>
+      <c r="I177" s="18" t="s">
+        <v>4749</v>
+      </c>
       <c r="J177" s="18" t="s">
         <v>289</v>
       </c>
@@ -69756,7 +69944,9 @@
       <c r="H178" s="17">
         <v>60</v>
       </c>
-      <c r="I178" s="18"/>
+      <c r="I178" s="18" t="s">
+        <v>4749</v>
+      </c>
       <c r="J178" s="18" t="s">
         <v>291</v>
       </c>
@@ -69786,7 +69976,9 @@
       <c r="H179" s="17">
         <v>120</v>
       </c>
-      <c r="I179" s="18"/>
+      <c r="I179" s="18" t="s">
+        <v>4749</v>
+      </c>
       <c r="J179" s="18" t="s">
         <v>2638</v>
       </c>
@@ -69816,7 +70008,9 @@
       <c r="H180" s="17">
         <v>120</v>
       </c>
-      <c r="I180" s="18"/>
+      <c r="I180" s="18" t="s">
+        <v>4749</v>
+      </c>
       <c r="J180" s="18" t="s">
         <v>294</v>
       </c>
@@ -69846,7 +70040,9 @@
       <c r="H181" s="17">
         <v>120</v>
       </c>
-      <c r="I181" s="18"/>
+      <c r="I181" s="18" t="s">
+        <v>4749</v>
+      </c>
       <c r="J181" s="18" t="s">
         <v>2523</v>
       </c>
@@ -69876,7 +70072,9 @@
       <c r="H182" s="17">
         <v>40</v>
       </c>
-      <c r="I182" s="18"/>
+      <c r="I182" s="18" t="s">
+        <v>4749</v>
+      </c>
       <c r="J182" s="18" t="s">
         <v>297</v>
       </c>
@@ -69906,7 +70104,9 @@
       <c r="H183" s="17">
         <v>120</v>
       </c>
-      <c r="I183" s="18"/>
+      <c r="I183" s="18" t="s">
+        <v>4749</v>
+      </c>
       <c r="J183" s="18" t="s">
         <v>299</v>
       </c>
@@ -69936,7 +70136,9 @@
       <c r="H184" s="17">
         <v>40</v>
       </c>
-      <c r="I184" s="18"/>
+      <c r="I184" s="18" t="s">
+        <v>4749</v>
+      </c>
       <c r="J184" s="18" t="s">
         <v>301</v>
       </c>
@@ -69966,7 +70168,9 @@
       <c r="H185" s="17">
         <v>40</v>
       </c>
-      <c r="I185" s="18"/>
+      <c r="I185" s="18" t="s">
+        <v>4749</v>
+      </c>
       <c r="J185" s="18" t="s">
         <v>303</v>
       </c>
@@ -69996,7 +70200,9 @@
       <c r="H186" s="17">
         <v>120</v>
       </c>
-      <c r="I186" s="18"/>
+      <c r="I186" s="18" t="s">
+        <v>4749</v>
+      </c>
       <c r="J186" s="18" t="s">
         <v>305</v>
       </c>
@@ -70026,7 +70232,9 @@
       <c r="H187" s="17">
         <v>60</v>
       </c>
-      <c r="I187" s="18"/>
+      <c r="I187" s="18" t="s">
+        <v>4749</v>
+      </c>
       <c r="J187" s="18" t="s">
         <v>2476</v>
       </c>
@@ -70056,7 +70264,9 @@
       <c r="H188" s="17">
         <v>120</v>
       </c>
-      <c r="I188" s="18"/>
+      <c r="I188" s="18" t="s">
+        <v>4749</v>
+      </c>
       <c r="J188" s="18" t="s">
         <v>297</v>
       </c>
@@ -70086,7 +70296,9 @@
       <c r="H189" s="17">
         <v>120</v>
       </c>
-      <c r="I189" s="18"/>
+      <c r="I189" s="18" t="s">
+        <v>4749</v>
+      </c>
       <c r="J189" s="18" t="s">
         <v>309</v>
       </c>
@@ -70116,7 +70328,9 @@
       <c r="H190" s="17">
         <v>60</v>
       </c>
-      <c r="I190" s="18"/>
+      <c r="I190" s="18" t="s">
+        <v>4749</v>
+      </c>
       <c r="J190" s="18" t="s">
         <v>2524</v>
       </c>
@@ -70146,7 +70360,9 @@
       <c r="H191" s="17">
         <v>120</v>
       </c>
-      <c r="I191" s="18"/>
+      <c r="I191" s="18" t="s">
+        <v>4749</v>
+      </c>
       <c r="J191" s="18" t="s">
         <v>312</v>
       </c>
@@ -70176,7 +70392,9 @@
       <c r="H192" s="17">
         <v>60</v>
       </c>
-      <c r="I192" s="18"/>
+      <c r="I192" s="18" t="s">
+        <v>4749</v>
+      </c>
       <c r="J192" s="18" t="s">
         <v>2526</v>
       </c>
@@ -70206,7 +70424,9 @@
       <c r="H193" s="17">
         <v>120</v>
       </c>
-      <c r="I193" s="18"/>
+      <c r="I193" s="18" t="s">
+        <v>4749</v>
+      </c>
       <c r="J193" s="18" t="s">
         <v>314</v>
       </c>
@@ -70236,7 +70456,9 @@
       <c r="H194" s="17">
         <v>120</v>
       </c>
-      <c r="I194" s="18"/>
+      <c r="I194" s="18" t="s">
+        <v>4749</v>
+      </c>
       <c r="J194" s="18" t="s">
         <v>2603</v>
       </c>
@@ -70326,7 +70548,9 @@
       <c r="H197" s="17">
         <v>40</v>
       </c>
-      <c r="I197" s="18"/>
+      <c r="I197" s="18" t="s">
+        <v>4749</v>
+      </c>
       <c r="J197" s="18" t="s">
         <v>321</v>
       </c>
@@ -70356,7 +70580,9 @@
       <c r="H198" s="17">
         <v>40</v>
       </c>
-      <c r="I198" s="18"/>
+      <c r="I198" s="18" t="s">
+        <v>4749</v>
+      </c>
       <c r="J198" s="18" t="s">
         <v>323</v>
       </c>
@@ -70386,7 +70612,9 @@
       <c r="H199" s="17">
         <v>60</v>
       </c>
-      <c r="I199" s="18"/>
+      <c r="I199" s="18" t="s">
+        <v>4749</v>
+      </c>
       <c r="J199" s="18" t="s">
         <v>325</v>
       </c>
@@ -70416,7 +70644,9 @@
       <c r="H200" s="17">
         <v>60</v>
       </c>
-      <c r="I200" s="18"/>
+      <c r="I200" s="18" t="s">
+        <v>4749</v>
+      </c>
       <c r="J200" s="18" t="s">
         <v>327</v>
       </c>
@@ -70446,7 +70676,9 @@
       <c r="H201" s="17">
         <v>60</v>
       </c>
-      <c r="I201" s="18"/>
+      <c r="I201" s="18" t="s">
+        <v>4749</v>
+      </c>
       <c r="J201" s="18" t="s">
         <v>329</v>
       </c>
@@ -70476,7 +70708,9 @@
       <c r="H202" s="17">
         <v>30</v>
       </c>
-      <c r="I202" s="18"/>
+      <c r="I202" s="18" t="s">
+        <v>4749</v>
+      </c>
       <c r="J202" s="18" t="s">
         <v>50</v>
       </c>
@@ -70506,7 +70740,9 @@
       <c r="H203" s="17">
         <v>60</v>
       </c>
-      <c r="I203" s="18"/>
+      <c r="I203" s="18" t="s">
+        <v>4749</v>
+      </c>
       <c r="J203" s="18" t="s">
         <v>332</v>
       </c>
@@ -70536,7 +70772,9 @@
       <c r="H204" s="17">
         <v>60</v>
       </c>
-      <c r="I204" s="18"/>
+      <c r="I204" s="18" t="s">
+        <v>4749</v>
+      </c>
       <c r="J204" s="18" t="s">
         <v>334</v>
       </c>
@@ -70566,7 +70804,9 @@
       <c r="H205" s="17">
         <v>24</v>
       </c>
-      <c r="I205" s="18"/>
+      <c r="I205" s="18" t="s">
+        <v>4749</v>
+      </c>
       <c r="J205" s="18" t="s">
         <v>336</v>
       </c>
@@ -70596,7 +70836,9 @@
       <c r="H206" s="17">
         <v>120</v>
       </c>
-      <c r="I206" s="18"/>
+      <c r="I206" s="18" t="s">
+        <v>4749</v>
+      </c>
       <c r="J206" s="18" t="s">
         <v>338</v>
       </c>
@@ -70626,7 +70868,9 @@
       <c r="H207" s="17">
         <v>40</v>
       </c>
-      <c r="I207" s="18"/>
+      <c r="I207" s="18" t="s">
+        <v>4749</v>
+      </c>
       <c r="J207" s="18" t="s">
         <v>340</v>
       </c>
@@ -70656,7 +70900,9 @@
       <c r="H208" s="17">
         <v>30</v>
       </c>
-      <c r="I208" s="18"/>
+      <c r="I208" s="18" t="s">
+        <v>4749</v>
+      </c>
       <c r="J208" s="18" t="s">
         <v>342</v>
       </c>
@@ -70686,7 +70932,9 @@
       <c r="H209" s="17">
         <v>20</v>
       </c>
-      <c r="I209" s="18"/>
+      <c r="I209" s="18" t="s">
+        <v>4749</v>
+      </c>
       <c r="J209" s="18" t="s">
         <v>344</v>
       </c>
@@ -70716,7 +70964,9 @@
       <c r="H210" s="17">
         <v>60</v>
       </c>
-      <c r="I210" s="18"/>
+      <c r="I210" s="18" t="s">
+        <v>4749</v>
+      </c>
       <c r="J210" s="18" t="s">
         <v>346</v>
       </c>
@@ -70746,7 +70996,9 @@
       <c r="H211" s="17">
         <v>40</v>
       </c>
-      <c r="I211" s="18"/>
+      <c r="I211" s="18" t="s">
+        <v>4749</v>
+      </c>
       <c r="J211" s="18" t="s">
         <v>348</v>
       </c>
@@ -70776,7 +71028,9 @@
       <c r="H212" s="17">
         <v>120</v>
       </c>
-      <c r="I212" s="18"/>
+      <c r="I212" s="18" t="s">
+        <v>4749</v>
+      </c>
       <c r="J212" s="18" t="s">
         <v>350</v>
       </c>
@@ -70806,7 +71060,9 @@
       <c r="H213" s="17">
         <v>120</v>
       </c>
-      <c r="I213" s="18"/>
+      <c r="I213" s="18" t="s">
+        <v>4749</v>
+      </c>
       <c r="J213" s="18" t="s">
         <v>2639</v>
       </c>
@@ -70836,7 +71092,9 @@
       <c r="H214" s="17">
         <v>60</v>
       </c>
-      <c r="I214" s="18"/>
+      <c r="I214" s="18" t="s">
+        <v>4749</v>
+      </c>
       <c r="J214" s="18" t="s">
         <v>353</v>
       </c>
@@ -70866,7 +71124,9 @@
       <c r="H215" s="17">
         <v>30</v>
       </c>
-      <c r="I215" s="18"/>
+      <c r="I215" s="18" t="s">
+        <v>4749</v>
+      </c>
       <c r="J215" s="18" t="s">
         <v>355</v>
       </c>
@@ -70896,7 +71156,9 @@
       <c r="H216" s="17">
         <v>60</v>
       </c>
-      <c r="I216" s="18"/>
+      <c r="I216" s="18" t="s">
+        <v>4749</v>
+      </c>
       <c r="J216" s="18" t="s">
         <v>2640</v>
       </c>
@@ -70926,7 +71188,9 @@
       <c r="H217" s="17">
         <v>40</v>
       </c>
-      <c r="I217" s="18"/>
+      <c r="I217" s="18" t="s">
+        <v>4749</v>
+      </c>
       <c r="J217" s="18" t="s">
         <v>358</v>
       </c>
@@ -70956,7 +71220,9 @@
       <c r="H218" s="17">
         <v>60</v>
       </c>
-      <c r="I218" s="18"/>
+      <c r="I218" s="18" t="s">
+        <v>4749</v>
+      </c>
       <c r="J218" s="18" t="s">
         <v>360</v>
       </c>
@@ -70986,7 +71252,9 @@
       <c r="H219" s="17">
         <v>120</v>
       </c>
-      <c r="I219" s="18"/>
+      <c r="I219" s="18" t="s">
+        <v>4749</v>
+      </c>
       <c r="J219" s="18" t="s">
         <v>362</v>
       </c>
@@ -71016,7 +71284,9 @@
       <c r="H220" s="17">
         <v>30</v>
       </c>
-      <c r="I220" s="18"/>
+      <c r="I220" s="18" t="s">
+        <v>4749</v>
+      </c>
       <c r="J220" s="18" t="s">
         <v>364</v>
       </c>
@@ -71046,7 +71316,9 @@
       <c r="H221" s="17">
         <v>60</v>
       </c>
-      <c r="I221" s="18"/>
+      <c r="I221" s="18" t="s">
+        <v>4749</v>
+      </c>
       <c r="J221" s="18" t="s">
         <v>366</v>
       </c>
@@ -71076,7 +71348,9 @@
       <c r="H222" s="17">
         <v>60</v>
       </c>
-      <c r="I222" s="18"/>
+      <c r="I222" s="18" t="s">
+        <v>4749</v>
+      </c>
       <c r="J222" s="18" t="s">
         <v>368</v>
       </c>
@@ -71256,7 +71530,9 @@
       <c r="H228" s="17">
         <v>24</v>
       </c>
-      <c r="I228" s="18"/>
+      <c r="I228" s="18" t="s">
+        <v>4749</v>
+      </c>
       <c r="J228" s="18" t="s">
         <v>379</v>
       </c>
@@ -71286,7 +71562,9 @@
       <c r="H229" s="17">
         <v>24</v>
       </c>
-      <c r="I229" s="18"/>
+      <c r="I229" s="18" t="s">
+        <v>4749</v>
+      </c>
       <c r="J229" s="18" t="s">
         <v>381</v>
       </c>
@@ -71316,7 +71594,9 @@
       <c r="H230" s="17">
         <v>40</v>
       </c>
-      <c r="I230" s="18"/>
+      <c r="I230" s="18" t="s">
+        <v>4749</v>
+      </c>
       <c r="J230" s="18" t="s">
         <v>383</v>
       </c>
@@ -71346,7 +71626,9 @@
       <c r="H231" s="17">
         <v>20</v>
       </c>
-      <c r="I231" s="18"/>
+      <c r="I231" s="18" t="s">
+        <v>4749</v>
+      </c>
       <c r="J231" s="18" t="s">
         <v>385</v>
       </c>
@@ -71376,7 +71658,9 @@
       <c r="H232" s="17">
         <v>40</v>
       </c>
-      <c r="I232" s="18"/>
+      <c r="I232" s="18" t="s">
+        <v>4749</v>
+      </c>
       <c r="J232" s="18" t="s">
         <v>387</v>
       </c>
@@ -71406,7 +71690,9 @@
       <c r="H233" s="17">
         <v>40</v>
       </c>
-      <c r="I233" s="18"/>
+      <c r="I233" s="18" t="s">
+        <v>4749</v>
+      </c>
       <c r="J233" s="18" t="s">
         <v>389</v>
       </c>
@@ -71436,7 +71722,9 @@
       <c r="H234" s="17">
         <v>60</v>
       </c>
-      <c r="I234" s="18"/>
+      <c r="I234" s="18" t="s">
+        <v>4749</v>
+      </c>
       <c r="J234" s="18" t="s">
         <v>391</v>
       </c>
@@ -71466,7 +71754,9 @@
       <c r="H235" s="17">
         <v>40</v>
       </c>
-      <c r="I235" s="18"/>
+      <c r="I235" s="18" t="s">
+        <v>4749</v>
+      </c>
       <c r="J235" s="18" t="s">
         <v>393</v>
       </c>
@@ -71496,7 +71786,9 @@
       <c r="H236" s="17">
         <v>60</v>
       </c>
-      <c r="I236" s="18"/>
+      <c r="I236" s="18" t="s">
+        <v>4749</v>
+      </c>
       <c r="J236" s="18" t="s">
         <v>2642</v>
       </c>
@@ -71526,7 +71818,9 @@
       <c r="H237" s="17">
         <v>40</v>
       </c>
-      <c r="I237" s="18"/>
+      <c r="I237" s="18" t="s">
+        <v>4749</v>
+      </c>
       <c r="J237" s="18" t="s">
         <v>396</v>
       </c>
@@ -71556,7 +71850,9 @@
       <c r="H238" s="17">
         <v>60</v>
       </c>
-      <c r="I238" s="18"/>
+      <c r="I238" s="18" t="s">
+        <v>4749</v>
+      </c>
       <c r="J238" s="18" t="s">
         <v>398</v>
       </c>
@@ -71586,7 +71882,9 @@
       <c r="H239" s="17">
         <v>15</v>
       </c>
-      <c r="I239" s="18"/>
+      <c r="I239" s="18" t="s">
+        <v>4749</v>
+      </c>
       <c r="J239" s="18" t="s">
         <v>400</v>
       </c>
@@ -71616,7 +71914,9 @@
       <c r="H240" s="17">
         <v>40</v>
       </c>
-      <c r="I240" s="18"/>
+      <c r="I240" s="18" t="s">
+        <v>4749</v>
+      </c>
       <c r="J240" s="18" t="s">
         <v>402</v>
       </c>
@@ -71646,7 +71946,9 @@
       <c r="H241" s="17">
         <v>24</v>
       </c>
-      <c r="I241" s="18"/>
+      <c r="I241" s="18" t="s">
+        <v>4749</v>
+      </c>
       <c r="J241" s="18" t="s">
         <v>2643</v>
       </c>
@@ -71676,7 +71978,9 @@
       <c r="H242" s="17">
         <v>40</v>
       </c>
-      <c r="I242" s="18"/>
+      <c r="I242" s="18" t="s">
+        <v>4749</v>
+      </c>
       <c r="J242" s="18" t="s">
         <v>2643</v>
       </c>
@@ -71706,7 +72010,9 @@
       <c r="H243" s="17">
         <v>60</v>
       </c>
-      <c r="I243" s="18"/>
+      <c r="I243" s="18" t="s">
+        <v>4749</v>
+      </c>
       <c r="J243" s="18" t="s">
         <v>406</v>
       </c>
@@ -71736,7 +72042,9 @@
       <c r="H244" s="17">
         <v>60</v>
       </c>
-      <c r="I244" s="18"/>
+      <c r="I244" s="18" t="s">
+        <v>4749</v>
+      </c>
       <c r="J244" s="18" t="s">
         <v>408</v>
       </c>
@@ -71766,7 +72074,9 @@
       <c r="H245" s="17">
         <v>60</v>
       </c>
-      <c r="I245" s="18"/>
+      <c r="I245" s="18" t="s">
+        <v>4749</v>
+      </c>
       <c r="J245" s="18" t="s">
         <v>2643</v>
       </c>
@@ -71796,7 +72106,9 @@
       <c r="H246" s="17">
         <v>120</v>
       </c>
-      <c r="I246" s="18"/>
+      <c r="I246" s="18" t="s">
+        <v>4749</v>
+      </c>
       <c r="J246" s="18" t="s">
         <v>410</v>
       </c>
@@ -71826,7 +72138,9 @@
       <c r="H247" s="17">
         <v>30</v>
       </c>
-      <c r="I247" s="18"/>
+      <c r="I247" s="18" t="s">
+        <v>4749</v>
+      </c>
       <c r="J247" s="18" t="s">
         <v>411</v>
       </c>
@@ -71856,7 +72170,9 @@
       <c r="H248" s="17">
         <v>60</v>
       </c>
-      <c r="I248" s="18"/>
+      <c r="I248" s="18" t="s">
+        <v>4749</v>
+      </c>
       <c r="J248" s="18" t="s">
         <v>2528</v>
       </c>
@@ -71886,7 +72202,9 @@
       <c r="H249" s="17">
         <v>120</v>
       </c>
-      <c r="I249" s="18"/>
+      <c r="I249" s="18" t="s">
+        <v>4749</v>
+      </c>
       <c r="J249" s="18" t="s">
         <v>2529</v>
       </c>
@@ -71916,7 +72234,9 @@
       <c r="H250" s="17">
         <v>30</v>
       </c>
-      <c r="I250" s="18"/>
+      <c r="I250" s="18" t="s">
+        <v>4749</v>
+      </c>
       <c r="J250" s="18" t="s">
         <v>415</v>
       </c>
@@ -71946,7 +72266,9 @@
       <c r="H251" s="17">
         <v>120</v>
       </c>
-      <c r="I251" s="18"/>
+      <c r="I251" s="18" t="s">
+        <v>4749</v>
+      </c>
       <c r="J251" s="18" t="s">
         <v>2530</v>
       </c>
@@ -71976,7 +72298,9 @@
       <c r="H252" s="17">
         <v>60</v>
       </c>
-      <c r="I252" s="18"/>
+      <c r="I252" s="18" t="s">
+        <v>4749</v>
+      </c>
       <c r="J252" s="18" t="s">
         <v>2479</v>
       </c>
@@ -72006,7 +72330,9 @@
       <c r="H253" s="17">
         <v>60</v>
       </c>
-      <c r="I253" s="18"/>
+      <c r="I253" s="18" t="s">
+        <v>4749</v>
+      </c>
       <c r="J253" s="18" t="s">
         <v>419</v>
       </c>
@@ -72486,7 +72812,9 @@
       <c r="H269" s="17">
         <v>40</v>
       </c>
-      <c r="I269" s="18"/>
+      <c r="I269" s="18" t="s">
+        <v>4749</v>
+      </c>
       <c r="J269" s="18" t="s">
         <v>446</v>
       </c>
@@ -72516,7 +72844,9 @@
       <c r="H270" s="17">
         <v>30</v>
       </c>
-      <c r="I270" s="18"/>
+      <c r="I270" s="18" t="s">
+        <v>4749</v>
+      </c>
       <c r="J270" s="18" t="s">
         <v>448</v>
       </c>
@@ -72546,7 +72876,9 @@
       <c r="H271" s="17">
         <v>40</v>
       </c>
-      <c r="I271" s="18"/>
+      <c r="I271" s="18" t="s">
+        <v>4749</v>
+      </c>
       <c r="J271" s="18" t="s">
         <v>449</v>
       </c>
@@ -72576,7 +72908,9 @@
       <c r="H272" s="17">
         <v>40</v>
       </c>
-      <c r="I272" s="18"/>
+      <c r="I272" s="18" t="s">
+        <v>4749</v>
+      </c>
       <c r="J272" s="18" t="s">
         <v>451</v>
       </c>
@@ -72606,7 +72940,9 @@
       <c r="H273" s="17">
         <v>40</v>
       </c>
-      <c r="I273" s="18"/>
+      <c r="I273" s="18" t="s">
+        <v>4749</v>
+      </c>
       <c r="J273" s="18" t="s">
         <v>452</v>
       </c>
@@ -72636,7 +72972,9 @@
       <c r="H274" s="17">
         <v>120</v>
       </c>
-      <c r="I274" s="18"/>
+      <c r="I274" s="18" t="s">
+        <v>4749</v>
+      </c>
       <c r="J274" s="18" t="s">
         <v>454</v>
       </c>
@@ -72666,7 +73004,9 @@
       <c r="H275" s="17">
         <v>120</v>
       </c>
-      <c r="I275" s="18"/>
+      <c r="I275" s="18" t="s">
+        <v>4749</v>
+      </c>
       <c r="J275" s="18" t="s">
         <v>456</v>
       </c>
@@ -72696,7 +73036,9 @@
       <c r="H276" s="17">
         <v>30</v>
       </c>
-      <c r="I276" s="18"/>
+      <c r="I276" s="18" t="s">
+        <v>4749</v>
+      </c>
       <c r="J276" s="18" t="s">
         <v>458</v>
       </c>
@@ -72726,7 +73068,9 @@
       <c r="H277" s="17">
         <v>60</v>
       </c>
-      <c r="I277" s="18"/>
+      <c r="I277" s="18" t="s">
+        <v>4749</v>
+      </c>
       <c r="J277" s="18" t="s">
         <v>460</v>
       </c>
@@ -72756,7 +73100,9 @@
       <c r="H278" s="17">
         <v>20</v>
       </c>
-      <c r="I278" s="18"/>
+      <c r="I278" s="18" t="s">
+        <v>4749</v>
+      </c>
       <c r="J278" s="18" t="s">
         <v>462</v>
       </c>
@@ -72786,7 +73132,9 @@
       <c r="H279" s="17">
         <v>40</v>
       </c>
-      <c r="I279" s="18"/>
+      <c r="I279" s="18" t="s">
+        <v>4749</v>
+      </c>
       <c r="J279" s="18" t="s">
         <v>463</v>
       </c>
@@ -72816,7 +73164,9 @@
       <c r="H280" s="17">
         <v>60</v>
       </c>
-      <c r="I280" s="18"/>
+      <c r="I280" s="18" t="s">
+        <v>4749</v>
+      </c>
       <c r="J280" s="18" t="s">
         <v>465</v>
       </c>
@@ -72846,7 +73196,9 @@
       <c r="H281" s="17">
         <v>120</v>
       </c>
-      <c r="I281" s="18"/>
+      <c r="I281" s="18" t="s">
+        <v>4749</v>
+      </c>
       <c r="J281" s="18" t="s">
         <v>467</v>
       </c>
@@ -72876,7 +73228,9 @@
       <c r="H282" s="17">
         <v>30</v>
       </c>
-      <c r="I282" s="18"/>
+      <c r="I282" s="18" t="s">
+        <v>4749</v>
+      </c>
       <c r="J282" s="18" t="s">
         <v>469</v>
       </c>
@@ -72906,7 +73260,9 @@
       <c r="H283" s="17">
         <v>40</v>
       </c>
-      <c r="I283" s="18"/>
+      <c r="I283" s="18" t="s">
+        <v>4749</v>
+      </c>
       <c r="J283" s="18" t="s">
         <v>471</v>
       </c>
@@ -72936,7 +73292,9 @@
       <c r="H284" s="17">
         <v>60</v>
       </c>
-      <c r="I284" s="18"/>
+      <c r="I284" s="18" t="s">
+        <v>4749</v>
+      </c>
       <c r="J284" s="18" t="s">
         <v>2535</v>
       </c>
@@ -72966,7 +73324,9 @@
       <c r="H285" s="17">
         <v>60</v>
       </c>
-      <c r="I285" s="18"/>
+      <c r="I285" s="18" t="s">
+        <v>4749</v>
+      </c>
       <c r="J285" s="18" t="s">
         <v>474</v>
       </c>
@@ -72996,7 +73356,9 @@
       <c r="H286" s="17">
         <v>30</v>
       </c>
-      <c r="I286" s="18"/>
+      <c r="I286" s="18" t="s">
+        <v>4749</v>
+      </c>
       <c r="J286" s="18" t="s">
         <v>475</v>
       </c>
@@ -73026,7 +73388,9 @@
       <c r="H287" s="17">
         <v>40</v>
       </c>
-      <c r="I287" s="18"/>
+      <c r="I287" s="18" t="s">
+        <v>4749</v>
+      </c>
       <c r="J287" s="18" t="s">
         <v>477</v>
       </c>
@@ -73056,7 +73420,9 @@
       <c r="H288" s="17">
         <v>30</v>
       </c>
-      <c r="I288" s="18"/>
+      <c r="I288" s="18" t="s">
+        <v>4749</v>
+      </c>
       <c r="J288" s="18" t="s">
         <v>2647</v>
       </c>
@@ -73326,7 +73692,9 @@
       <c r="H297" s="17">
         <v>40</v>
       </c>
-      <c r="I297" s="18"/>
+      <c r="I297" s="18" t="s">
+        <v>4749</v>
+      </c>
       <c r="J297" s="18" t="s">
         <v>490</v>
       </c>
@@ -73356,7 +73724,9 @@
       <c r="H298" s="17">
         <v>30</v>
       </c>
-      <c r="I298" s="18"/>
+      <c r="I298" s="18" t="s">
+        <v>4749</v>
+      </c>
       <c r="J298" s="18" t="s">
         <v>492</v>
       </c>
@@ -73386,7 +73756,9 @@
       <c r="H299" s="17">
         <v>20</v>
       </c>
-      <c r="I299" s="18"/>
+      <c r="I299" s="18" t="s">
+        <v>4749</v>
+      </c>
       <c r="J299" s="18" t="s">
         <v>494</v>
       </c>
@@ -73416,7 +73788,9 @@
       <c r="H300" s="17">
         <v>60</v>
       </c>
-      <c r="I300" s="18"/>
+      <c r="I300" s="18" t="s">
+        <v>4749</v>
+      </c>
       <c r="J300" s="18" t="s">
         <v>496</v>
       </c>
@@ -73446,7 +73820,9 @@
       <c r="H301" s="17">
         <v>20</v>
       </c>
-      <c r="I301" s="18"/>
+      <c r="I301" s="18" t="s">
+        <v>4749</v>
+      </c>
       <c r="J301" s="18" t="s">
         <v>498</v>
       </c>
@@ -73476,7 +73852,9 @@
       <c r="H302" s="17">
         <v>40</v>
       </c>
-      <c r="I302" s="18"/>
+      <c r="I302" s="18" t="s">
+        <v>4749</v>
+      </c>
       <c r="J302" s="18" t="s">
         <v>500</v>
       </c>
@@ -73506,7 +73884,9 @@
       <c r="H303" s="17">
         <v>120</v>
       </c>
-      <c r="I303" s="18"/>
+      <c r="I303" s="18" t="s">
+        <v>4749</v>
+      </c>
       <c r="J303" s="18" t="s">
         <v>501</v>
       </c>
@@ -73536,7 +73916,9 @@
       <c r="H304" s="17">
         <v>60</v>
       </c>
-      <c r="I304" s="18"/>
+      <c r="I304" s="18" t="s">
+        <v>4749</v>
+      </c>
       <c r="J304" s="18" t="s">
         <v>503</v>
       </c>
@@ -73566,7 +73948,9 @@
       <c r="H305" s="17">
         <v>60</v>
       </c>
-      <c r="I305" s="18"/>
+      <c r="I305" s="18" t="s">
+        <v>4749</v>
+      </c>
       <c r="J305" s="18" t="s">
         <v>505</v>
       </c>
@@ -73596,7 +73980,9 @@
       <c r="H306" s="17">
         <v>60</v>
       </c>
-      <c r="I306" s="18"/>
+      <c r="I306" s="18" t="s">
+        <v>4749</v>
+      </c>
       <c r="J306" s="18" t="s">
         <v>507</v>
       </c>
@@ -73626,7 +74012,9 @@
       <c r="H307" s="17">
         <v>120</v>
       </c>
-      <c r="I307" s="18"/>
+      <c r="I307" s="18" t="s">
+        <v>4749</v>
+      </c>
       <c r="J307" s="18" t="s">
         <v>509</v>
       </c>
@@ -73656,7 +74044,9 @@
       <c r="H308" s="17">
         <v>30</v>
       </c>
-      <c r="I308" s="18"/>
+      <c r="I308" s="18" t="s">
+        <v>4749</v>
+      </c>
       <c r="J308" s="18" t="s">
         <v>511</v>
       </c>
@@ -73686,7 +74076,9 @@
       <c r="H309" s="17">
         <v>24</v>
       </c>
-      <c r="I309" s="18"/>
+      <c r="I309" s="18" t="s">
+        <v>4749</v>
+      </c>
       <c r="J309" s="18" t="s">
         <v>513</v>
       </c>
@@ -73716,7 +74108,9 @@
       <c r="H310" s="17">
         <v>40</v>
       </c>
-      <c r="I310" s="18"/>
+      <c r="I310" s="18" t="s">
+        <v>4749</v>
+      </c>
       <c r="J310" s="18" t="s">
         <v>515</v>
       </c>
@@ -73778,7 +74172,9 @@
       <c r="H312" s="17">
         <v>60</v>
       </c>
-      <c r="I312" s="18"/>
+      <c r="I312" s="18" t="s">
+        <v>4749</v>
+      </c>
       <c r="J312" s="18" t="s">
         <v>519</v>
       </c>
@@ -73808,7 +74204,9 @@
       <c r="H313" s="17">
         <v>60</v>
       </c>
-      <c r="I313" s="18"/>
+      <c r="I313" s="18" t="s">
+        <v>4749</v>
+      </c>
       <c r="J313" s="18" t="s">
         <v>521</v>
       </c>
@@ -73838,7 +74236,9 @@
       <c r="H314" s="17">
         <v>120</v>
       </c>
-      <c r="I314" s="18"/>
+      <c r="I314" s="18" t="s">
+        <v>4749</v>
+      </c>
       <c r="J314" s="18" t="s">
         <v>523</v>
       </c>
@@ -73868,7 +74268,9 @@
       <c r="H315" s="17">
         <v>30</v>
       </c>
-      <c r="I315" s="18"/>
+      <c r="I315" s="18" t="s">
+        <v>4749</v>
+      </c>
       <c r="J315" s="18" t="s">
         <v>525</v>
       </c>
@@ -74018,7 +74420,9 @@
       <c r="H320" s="17">
         <v>24</v>
       </c>
-      <c r="I320" s="18"/>
+      <c r="I320" s="18" t="s">
+        <v>4749</v>
+      </c>
       <c r="J320" s="18" t="s">
         <v>534</v>
       </c>
@@ -74048,7 +74452,9 @@
       <c r="H321" s="17">
         <v>20</v>
       </c>
-      <c r="I321" s="18"/>
+      <c r="I321" s="18" t="s">
+        <v>4749</v>
+      </c>
       <c r="J321" s="18" t="s">
         <v>536</v>
       </c>
@@ -74078,7 +74484,9 @@
       <c r="H322" s="17">
         <v>60</v>
       </c>
-      <c r="I322" s="18"/>
+      <c r="I322" s="18" t="s">
+        <v>4749</v>
+      </c>
       <c r="J322" s="18" t="s">
         <v>538</v>
       </c>
@@ -74108,7 +74516,9 @@
       <c r="H323" s="17">
         <v>40</v>
       </c>
-      <c r="I323" s="18"/>
+      <c r="I323" s="18" t="s">
+        <v>4749</v>
+      </c>
       <c r="J323" s="18" t="s">
         <v>540</v>
       </c>
@@ -74138,7 +74548,9 @@
       <c r="H324" s="17">
         <v>30</v>
       </c>
-      <c r="I324" s="18"/>
+      <c r="I324" s="18" t="s">
+        <v>4749</v>
+      </c>
       <c r="J324" s="18" t="s">
         <v>542</v>
       </c>
@@ -74168,7 +74580,9 @@
       <c r="H325" s="17">
         <v>30</v>
       </c>
-      <c r="I325" s="18"/>
+      <c r="I325" s="18" t="s">
+        <v>4749</v>
+      </c>
       <c r="J325" s="18" t="s">
         <v>544</v>
       </c>
@@ -74198,7 +74612,9 @@
       <c r="H326" s="17">
         <v>30</v>
       </c>
-      <c r="I326" s="18"/>
+      <c r="I326" s="18" t="s">
+        <v>4749</v>
+      </c>
       <c r="J326" s="18" t="s">
         <v>2607</v>
       </c>
@@ -74228,7 +74644,9 @@
       <c r="H327" s="17">
         <v>30</v>
       </c>
-      <c r="I327" s="18"/>
+      <c r="I327" s="18" t="s">
+        <v>4749</v>
+      </c>
       <c r="J327" s="18" t="s">
         <v>547</v>
       </c>
@@ -74258,7 +74676,9 @@
       <c r="H328" s="17">
         <v>60</v>
       </c>
-      <c r="I328" s="18"/>
+      <c r="I328" s="18" t="s">
+        <v>4749</v>
+      </c>
       <c r="J328" s="18" t="s">
         <v>549</v>
       </c>
@@ -74288,7 +74708,9 @@
       <c r="H329" s="17">
         <v>60</v>
       </c>
-      <c r="I329" s="18"/>
+      <c r="I329" s="18" t="s">
+        <v>4749</v>
+      </c>
       <c r="J329" s="18" t="s">
         <v>551</v>
       </c>
@@ -74318,7 +74740,9 @@
       <c r="H330" s="17">
         <v>40</v>
       </c>
-      <c r="I330" s="18"/>
+      <c r="I330" s="18" t="s">
+        <v>4749</v>
+      </c>
       <c r="J330" s="18" t="s">
         <v>2648</v>
       </c>
@@ -74348,7 +74772,9 @@
       <c r="H331" s="17">
         <v>20</v>
       </c>
-      <c r="I331" s="18"/>
+      <c r="I331" s="18" t="s">
+        <v>4749</v>
+      </c>
       <c r="J331" s="18" t="s">
         <v>554</v>
       </c>
@@ -74378,7 +74804,9 @@
       <c r="H332" s="17">
         <v>120</v>
       </c>
-      <c r="I332" s="18"/>
+      <c r="I332" s="18" t="s">
+        <v>4749</v>
+      </c>
       <c r="J332" s="18" t="s">
         <v>556</v>
       </c>
@@ -74408,7 +74836,9 @@
       <c r="H333" s="17">
         <v>60</v>
       </c>
-      <c r="I333" s="18"/>
+      <c r="I333" s="18" t="s">
+        <v>4749</v>
+      </c>
       <c r="J333" s="18" t="s">
         <v>558</v>
       </c>
@@ -74438,7 +74868,9 @@
       <c r="H334" s="17">
         <v>120</v>
       </c>
-      <c r="I334" s="18"/>
+      <c r="I334" s="18" t="s">
+        <v>4749</v>
+      </c>
       <c r="J334" s="18" t="s">
         <v>560</v>
       </c>
@@ -74468,7 +74900,9 @@
       <c r="H335" s="17">
         <v>40</v>
       </c>
-      <c r="I335" s="18"/>
+      <c r="I335" s="18" t="s">
+        <v>4749</v>
+      </c>
       <c r="J335" s="18" t="s">
         <v>562</v>
       </c>
@@ -74498,7 +74932,9 @@
       <c r="H336" s="17">
         <v>30</v>
       </c>
-      <c r="I336" s="18"/>
+      <c r="I336" s="18" t="s">
+        <v>4749</v>
+      </c>
       <c r="J336" s="18" t="s">
         <v>564</v>
       </c>
@@ -74528,7 +74964,9 @@
       <c r="H337" s="17">
         <v>120</v>
       </c>
-      <c r="I337" s="18"/>
+      <c r="I337" s="18" t="s">
+        <v>4749</v>
+      </c>
       <c r="J337" s="18" t="s">
         <v>566</v>
       </c>
@@ -74558,7 +74996,9 @@
       <c r="H338" s="17">
         <v>60</v>
       </c>
-      <c r="I338" s="18"/>
+      <c r="I338" s="18" t="s">
+        <v>4749</v>
+      </c>
       <c r="J338" s="18" t="s">
         <v>568</v>
       </c>
@@ -74588,7 +75028,9 @@
       <c r="H339" s="17">
         <v>40</v>
       </c>
-      <c r="I339" s="18"/>
+      <c r="I339" s="18" t="s">
+        <v>4749</v>
+      </c>
       <c r="J339" s="18" t="s">
         <v>570</v>
       </c>
@@ -74618,7 +75060,9 @@
       <c r="H340" s="17">
         <v>30</v>
       </c>
-      <c r="I340" s="18"/>
+      <c r="I340" s="18" t="s">
+        <v>4749</v>
+      </c>
       <c r="J340" s="18" t="s">
         <v>572</v>
       </c>
@@ -74648,7 +75092,9 @@
       <c r="H341" s="17">
         <v>40</v>
       </c>
-      <c r="I341" s="18"/>
+      <c r="I341" s="18" t="s">
+        <v>4749</v>
+      </c>
       <c r="J341" s="18" t="s">
         <v>574</v>
       </c>
@@ -74678,7 +75124,9 @@
       <c r="H342" s="17">
         <v>60</v>
       </c>
-      <c r="I342" s="18"/>
+      <c r="I342" s="18" t="s">
+        <v>4749</v>
+      </c>
       <c r="J342" s="18" t="s">
         <v>576</v>
       </c>
@@ -74708,7 +75156,9 @@
       <c r="H343" s="17">
         <v>60</v>
       </c>
-      <c r="I343" s="18"/>
+      <c r="I343" s="18" t="s">
+        <v>4749</v>
+      </c>
       <c r="J343" s="18" t="s">
         <v>505</v>
       </c>
@@ -74738,7 +75188,9 @@
       <c r="H344" s="17">
         <v>120</v>
       </c>
-      <c r="I344" s="18"/>
+      <c r="I344" s="18" t="s">
+        <v>4749</v>
+      </c>
       <c r="J344" s="18" t="s">
         <v>2541</v>
       </c>
@@ -74768,7 +75220,9 @@
       <c r="H345" s="17">
         <v>60</v>
       </c>
-      <c r="I345" s="18"/>
+      <c r="I345" s="18" t="s">
+        <v>4749</v>
+      </c>
       <c r="J345" s="18" t="s">
         <v>580</v>
       </c>
@@ -74798,7 +75252,9 @@
       <c r="H346" s="17">
         <v>60</v>
       </c>
-      <c r="I346" s="18"/>
+      <c r="I346" s="18" t="s">
+        <v>4749</v>
+      </c>
       <c r="J346" s="18" t="s">
         <v>2649</v>
       </c>
@@ -74828,7 +75284,9 @@
       <c r="H347" s="17">
         <v>60</v>
       </c>
-      <c r="I347" s="18"/>
+      <c r="I347" s="18" t="s">
+        <v>4749</v>
+      </c>
       <c r="J347" s="18" t="s">
         <v>583</v>
       </c>
@@ -74858,7 +75316,9 @@
       <c r="H348" s="17">
         <v>30</v>
       </c>
-      <c r="I348" s="18"/>
+      <c r="I348" s="18" t="s">
+        <v>4749</v>
+      </c>
       <c r="J348" s="18" t="s">
         <v>585</v>
       </c>
@@ -74888,7 +75348,9 @@
       <c r="H349" s="17">
         <v>60</v>
       </c>
-      <c r="I349" s="18"/>
+      <c r="I349" s="18" t="s">
+        <v>4749</v>
+      </c>
       <c r="J349" s="18" t="s">
         <v>587</v>
       </c>
@@ -74918,7 +75380,9 @@
       <c r="H350" s="17">
         <v>40</v>
       </c>
-      <c r="I350" s="18"/>
+      <c r="I350" s="18" t="s">
+        <v>4749</v>
+      </c>
       <c r="J350" s="18" t="s">
         <v>2485</v>
       </c>
@@ -74948,7 +75412,9 @@
       <c r="H351" s="17">
         <v>60</v>
       </c>
-      <c r="I351" s="18"/>
+      <c r="I351" s="18" t="s">
+        <v>4749</v>
+      </c>
       <c r="J351" s="18" t="s">
         <v>590</v>
       </c>
@@ -74978,7 +75444,9 @@
       <c r="H352" s="17">
         <v>30</v>
       </c>
-      <c r="I352" s="18"/>
+      <c r="I352" s="18" t="s">
+        <v>4749</v>
+      </c>
       <c r="J352" s="18" t="s">
         <v>2486</v>
       </c>
@@ -75008,7 +75476,9 @@
       <c r="H353" s="17">
         <v>30</v>
       </c>
-      <c r="I353" s="18"/>
+      <c r="I353" s="18" t="s">
+        <v>4749</v>
+      </c>
       <c r="J353" s="18" t="s">
         <v>593</v>
       </c>
@@ -75038,7 +75508,9 @@
       <c r="H354" s="17">
         <v>20</v>
       </c>
-      <c r="I354" s="18"/>
+      <c r="I354" s="18" t="s">
+        <v>4749</v>
+      </c>
       <c r="J354" s="18" t="s">
         <v>595</v>
       </c>
@@ -75068,7 +75540,9 @@
       <c r="H355" s="17">
         <v>120</v>
       </c>
-      <c r="I355" s="18"/>
+      <c r="I355" s="18" t="s">
+        <v>4749</v>
+      </c>
       <c r="J355" s="18" t="s">
         <v>2542</v>
       </c>
@@ -75098,7 +75572,9 @@
       <c r="H356" s="17">
         <v>120</v>
       </c>
-      <c r="I356" s="18"/>
+      <c r="I356" s="18" t="s">
+        <v>4749</v>
+      </c>
       <c r="J356" s="18" t="s">
         <v>2650</v>
       </c>
@@ -75128,7 +75604,9 @@
       <c r="H357" s="17">
         <v>60</v>
       </c>
-      <c r="I357" s="18"/>
+      <c r="I357" s="18" t="s">
+        <v>4749</v>
+      </c>
       <c r="J357" s="18" t="s">
         <v>2608</v>
       </c>
@@ -75278,7 +75756,9 @@
       <c r="H362" s="17">
         <v>18</v>
       </c>
-      <c r="I362" s="18"/>
+      <c r="I362" s="18" t="s">
+        <v>4749</v>
+      </c>
       <c r="J362" s="18" t="s">
         <v>607</v>
       </c>
@@ -75308,7 +75788,9 @@
       <c r="H363" s="17">
         <v>40</v>
       </c>
-      <c r="I363" s="18"/>
+      <c r="I363" s="18" t="s">
+        <v>4749</v>
+      </c>
       <c r="J363" s="18" t="s">
         <v>609</v>
       </c>
@@ -75338,7 +75820,9 @@
       <c r="H364" s="17">
         <v>24</v>
       </c>
-      <c r="I364" s="18"/>
+      <c r="I364" s="18" t="s">
+        <v>4749</v>
+      </c>
       <c r="J364" s="18" t="s">
         <v>611</v>
       </c>
@@ -75368,7 +75852,9 @@
       <c r="H365" s="17">
         <v>30</v>
       </c>
-      <c r="I365" s="18"/>
+      <c r="I365" s="18" t="s">
+        <v>4749</v>
+      </c>
       <c r="J365" s="18" t="s">
         <v>613</v>
       </c>
@@ -75398,7 +75884,9 @@
       <c r="H366" s="17">
         <v>30</v>
       </c>
-      <c r="I366" s="18"/>
+      <c r="I366" s="18" t="s">
+        <v>4749</v>
+      </c>
       <c r="J366" s="18" t="s">
         <v>615</v>
       </c>
@@ -75428,7 +75916,9 @@
       <c r="H367" s="17">
         <v>120</v>
       </c>
-      <c r="I367" s="18"/>
+      <c r="I367" s="18" t="s">
+        <v>4749</v>
+      </c>
       <c r="J367" s="18" t="s">
         <v>617</v>
       </c>
@@ -75458,7 +75948,9 @@
       <c r="H368" s="17">
         <v>20</v>
       </c>
-      <c r="I368" s="18"/>
+      <c r="I368" s="18" t="s">
+        <v>4749</v>
+      </c>
       <c r="J368" s="18" t="s">
         <v>2543</v>
       </c>
@@ -75488,7 +75980,9 @@
       <c r="H369" s="17">
         <v>30</v>
       </c>
-      <c r="I369" s="18"/>
+      <c r="I369" s="18" t="s">
+        <v>4749</v>
+      </c>
       <c r="J369" s="18" t="s">
         <v>620</v>
       </c>
@@ -75518,7 +76012,9 @@
       <c r="H370" s="17">
         <v>30</v>
       </c>
-      <c r="I370" s="18"/>
+      <c r="I370" s="18" t="s">
+        <v>4749</v>
+      </c>
       <c r="J370" s="18" t="s">
         <v>622</v>
       </c>
@@ -75548,7 +76044,9 @@
       <c r="H371" s="17">
         <v>60</v>
       </c>
-      <c r="I371" s="18"/>
+      <c r="I371" s="18" t="s">
+        <v>4749</v>
+      </c>
       <c r="J371" s="18" t="s">
         <v>622</v>
       </c>
@@ -75578,7 +76076,9 @@
       <c r="H372" s="17">
         <v>60</v>
       </c>
-      <c r="I372" s="18"/>
+      <c r="I372" s="18" t="s">
+        <v>4749</v>
+      </c>
       <c r="J372" s="18" t="s">
         <v>2544</v>
       </c>
@@ -75608,7 +76108,9 @@
       <c r="H373" s="17">
         <v>60</v>
       </c>
-      <c r="I373" s="18"/>
+      <c r="I373" s="18" t="s">
+        <v>4749</v>
+      </c>
       <c r="J373" s="18" t="s">
         <v>626</v>
       </c>
@@ -75638,7 +76140,9 @@
       <c r="H374" s="17">
         <v>30</v>
       </c>
-      <c r="I374" s="18"/>
+      <c r="I374" s="18" t="s">
+        <v>4749</v>
+      </c>
       <c r="J374" s="18" t="s">
         <v>2545</v>
       </c>
@@ -75668,7 +76172,9 @@
       <c r="H375" s="17">
         <v>40</v>
       </c>
-      <c r="I375" s="18"/>
+      <c r="I375" s="18" t="s">
+        <v>4749</v>
+      </c>
       <c r="J375" s="18" t="s">
         <v>2546</v>
       </c>
@@ -75698,7 +76204,9 @@
       <c r="H376" s="17">
         <v>60</v>
       </c>
-      <c r="I376" s="18"/>
+      <c r="I376" s="18" t="s">
+        <v>4749</v>
+      </c>
       <c r="J376" s="18" t="s">
         <v>630</v>
       </c>
@@ -76058,7 +76566,9 @@
       <c r="H388" s="17">
         <v>60</v>
       </c>
-      <c r="I388" s="18"/>
+      <c r="I388" s="18" t="s">
+        <v>4749</v>
+      </c>
       <c r="J388" s="18" t="s">
         <v>651</v>
       </c>
@@ -76088,7 +76598,9 @@
       <c r="H389" s="17">
         <v>120</v>
       </c>
-      <c r="I389" s="18"/>
+      <c r="I389" s="18" t="s">
+        <v>4749</v>
+      </c>
       <c r="J389" s="18" t="s">
         <v>653</v>
       </c>
@@ -76118,7 +76630,9 @@
       <c r="H390" s="17">
         <v>60</v>
       </c>
-      <c r="I390" s="18"/>
+      <c r="I390" s="18" t="s">
+        <v>4749</v>
+      </c>
       <c r="J390" s="18" t="s">
         <v>655</v>
       </c>
@@ -76148,7 +76662,9 @@
       <c r="H391" s="17">
         <v>30</v>
       </c>
-      <c r="I391" s="18"/>
+      <c r="I391" s="18" t="s">
+        <v>4749</v>
+      </c>
       <c r="J391" s="18" t="s">
         <v>657</v>
       </c>
@@ -76178,7 +76694,9 @@
       <c r="H392" s="17">
         <v>60</v>
       </c>
-      <c r="I392" s="18"/>
+      <c r="I392" s="18" t="s">
+        <v>4749</v>
+      </c>
       <c r="J392" s="18" t="s">
         <v>659</v>
       </c>
@@ -76208,7 +76726,9 @@
       <c r="H393" s="17">
         <v>60</v>
       </c>
-      <c r="I393" s="18"/>
+      <c r="I393" s="18" t="s">
+        <v>4749</v>
+      </c>
       <c r="J393" s="18" t="s">
         <v>661</v>
       </c>
@@ -76238,7 +76758,9 @@
       <c r="H394" s="17">
         <v>20</v>
       </c>
-      <c r="I394" s="18"/>
+      <c r="I394" s="18" t="s">
+        <v>4749</v>
+      </c>
       <c r="J394" s="18" t="s">
         <v>2489</v>
       </c>
@@ -76268,7 +76790,9 @@
       <c r="H395" s="17">
         <v>40</v>
       </c>
-      <c r="I395" s="18"/>
+      <c r="I395" s="18" t="s">
+        <v>4749</v>
+      </c>
       <c r="J395" s="18" t="s">
         <v>664</v>
       </c>
@@ -76298,7 +76822,9 @@
       <c r="H396" s="17">
         <v>30</v>
       </c>
-      <c r="I396" s="18"/>
+      <c r="I396" s="18" t="s">
+        <v>4749</v>
+      </c>
       <c r="J396" s="18" t="s">
         <v>666</v>
       </c>
@@ -76328,7 +76854,9 @@
       <c r="H397" s="17">
         <v>60</v>
       </c>
-      <c r="I397" s="18"/>
+      <c r="I397" s="18" t="s">
+        <v>4749</v>
+      </c>
       <c r="J397" s="18" t="s">
         <v>668</v>
       </c>
@@ -76358,7 +76886,9 @@
       <c r="H398" s="17">
         <v>60</v>
       </c>
-      <c r="I398" s="18"/>
+      <c r="I398" s="18" t="s">
+        <v>4749</v>
+      </c>
       <c r="J398" s="18" t="s">
         <v>670</v>
       </c>
@@ -76388,7 +76918,9 @@
       <c r="H399" s="17">
         <v>60</v>
       </c>
-      <c r="I399" s="18"/>
+      <c r="I399" s="18" t="s">
+        <v>4749</v>
+      </c>
       <c r="J399" s="18" t="s">
         <v>672</v>
       </c>
@@ -76418,7 +76950,9 @@
       <c r="H400" s="17">
         <v>60</v>
       </c>
-      <c r="I400" s="18"/>
+      <c r="I400" s="18" t="s">
+        <v>4749</v>
+      </c>
       <c r="J400" s="18" t="s">
         <v>674</v>
       </c>
@@ -76448,7 +76982,9 @@
       <c r="H401" s="17">
         <v>60</v>
       </c>
-      <c r="I401" s="18"/>
+      <c r="I401" s="18" t="s">
+        <v>4749</v>
+      </c>
       <c r="J401" s="18" t="s">
         <v>2490</v>
       </c>
@@ -76478,7 +77014,9 @@
       <c r="H402" s="17">
         <v>60</v>
       </c>
-      <c r="I402" s="18"/>
+      <c r="I402" s="18" t="s">
+        <v>4749</v>
+      </c>
       <c r="J402" s="18" t="s">
         <v>677</v>
       </c>
@@ -76508,7 +77046,9 @@
       <c r="H403" s="17">
         <v>60</v>
       </c>
-      <c r="I403" s="18"/>
+      <c r="I403" s="18" t="s">
+        <v>4749</v>
+      </c>
       <c r="J403" s="18" t="s">
         <v>679</v>
       </c>
@@ -76538,7 +77078,9 @@
       <c r="H404" s="17">
         <v>60</v>
       </c>
-      <c r="I404" s="18"/>
+      <c r="I404" s="18" t="s">
+        <v>4749</v>
+      </c>
       <c r="J404" s="18" t="s">
         <v>681</v>
       </c>
@@ -76568,7 +77110,9 @@
       <c r="H405" s="17">
         <v>40</v>
       </c>
-      <c r="I405" s="18"/>
+      <c r="I405" s="18" t="s">
+        <v>4749</v>
+      </c>
       <c r="J405" s="18" t="s">
         <v>683</v>
       </c>
@@ -76598,7 +77142,9 @@
       <c r="H406" s="17">
         <v>60</v>
       </c>
-      <c r="I406" s="18"/>
+      <c r="I406" s="18" t="s">
+        <v>4749</v>
+      </c>
       <c r="J406" s="18" t="s">
         <v>2549</v>
       </c>
@@ -76628,7 +77174,9 @@
       <c r="H407" s="17">
         <v>60</v>
       </c>
-      <c r="I407" s="18"/>
+      <c r="I407" s="18" t="s">
+        <v>4749</v>
+      </c>
       <c r="J407" s="18" t="s">
         <v>686</v>
       </c>
@@ -76808,7 +77356,9 @@
       <c r="H413" s="17">
         <v>18</v>
       </c>
-      <c r="I413" s="18"/>
+      <c r="I413" s="18" t="s">
+        <v>4749</v>
+      </c>
       <c r="J413" s="18" t="s">
         <v>697</v>
       </c>
@@ -76838,7 +77388,9 @@
       <c r="H414" s="17">
         <v>40</v>
       </c>
-      <c r="I414" s="18"/>
+      <c r="I414" s="18" t="s">
+        <v>4749</v>
+      </c>
       <c r="J414" s="18" t="s">
         <v>699</v>
       </c>
@@ -76868,7 +77420,9 @@
       <c r="H415" s="17">
         <v>18</v>
       </c>
-      <c r="I415" s="18"/>
+      <c r="I415" s="18" t="s">
+        <v>4749</v>
+      </c>
       <c r="J415" s="18" t="s">
         <v>701</v>
       </c>
@@ -76898,7 +77452,9 @@
       <c r="H416" s="17">
         <v>30</v>
       </c>
-      <c r="I416" s="18"/>
+      <c r="I416" s="18" t="s">
+        <v>4749</v>
+      </c>
       <c r="J416" s="18" t="s">
         <v>703</v>
       </c>
@@ -76928,7 +77484,9 @@
       <c r="H417" s="17">
         <v>120</v>
       </c>
-      <c r="I417" s="18"/>
+      <c r="I417" s="18" t="s">
+        <v>4749</v>
+      </c>
       <c r="J417" s="18" t="s">
         <v>705</v>
       </c>
@@ -76958,7 +77516,9 @@
       <c r="H418" s="17">
         <v>30</v>
       </c>
-      <c r="I418" s="18"/>
+      <c r="I418" s="18" t="s">
+        <v>4749</v>
+      </c>
       <c r="J418" s="18" t="s">
         <v>707</v>
       </c>
@@ -76988,7 +77548,9 @@
       <c r="H419" s="17">
         <v>120</v>
       </c>
-      <c r="I419" s="18"/>
+      <c r="I419" s="18" t="s">
+        <v>4749</v>
+      </c>
       <c r="J419" s="18" t="s">
         <v>709</v>
       </c>
@@ -77018,7 +77580,9 @@
       <c r="H420" s="17">
         <v>30</v>
       </c>
-      <c r="I420" s="18"/>
+      <c r="I420" s="18" t="s">
+        <v>4749</v>
+      </c>
       <c r="J420" s="18" t="s">
         <v>711</v>
       </c>
@@ -77048,7 +77612,9 @@
       <c r="H421" s="17">
         <v>40</v>
       </c>
-      <c r="I421" s="18"/>
+      <c r="I421" s="18" t="s">
+        <v>4749</v>
+      </c>
       <c r="J421" s="18" t="s">
         <v>713</v>
       </c>
@@ -77078,7 +77644,9 @@
       <c r="H422" s="17">
         <v>60</v>
       </c>
-      <c r="I422" s="18"/>
+      <c r="I422" s="18" t="s">
+        <v>4749</v>
+      </c>
       <c r="J422" s="18" t="s">
         <v>715</v>
       </c>
@@ -77108,7 +77676,9 @@
       <c r="H423" s="17">
         <v>40</v>
       </c>
-      <c r="I423" s="18"/>
+      <c r="I423" s="18" t="s">
+        <v>4749</v>
+      </c>
       <c r="J423" s="18" t="s">
         <v>717</v>
       </c>
@@ -77138,7 +77708,9 @@
       <c r="H424" s="17">
         <v>120</v>
       </c>
-      <c r="I424" s="18"/>
+      <c r="I424" s="18" t="s">
+        <v>4749</v>
+      </c>
       <c r="J424" s="18" t="s">
         <v>2551</v>
       </c>
@@ -77168,7 +77740,9 @@
       <c r="H425" s="17">
         <v>40</v>
       </c>
-      <c r="I425" s="18"/>
+      <c r="I425" s="18" t="s">
+        <v>4749</v>
+      </c>
       <c r="J425" s="18" t="s">
         <v>720</v>
       </c>
@@ -77198,7 +77772,9 @@
       <c r="H426" s="17">
         <v>18</v>
       </c>
-      <c r="I426" s="18"/>
+      <c r="I426" s="18" t="s">
+        <v>4749</v>
+      </c>
       <c r="J426" s="18" t="s">
         <v>722</v>
       </c>
@@ -77228,7 +77804,9 @@
       <c r="H427" s="17">
         <v>120</v>
       </c>
-      <c r="I427" s="18"/>
+      <c r="I427" s="18" t="s">
+        <v>4749</v>
+      </c>
       <c r="J427" s="18" t="s">
         <v>724</v>
       </c>
@@ -77258,7 +77836,9 @@
       <c r="H428" s="17">
         <v>24</v>
       </c>
-      <c r="I428" s="18"/>
+      <c r="I428" s="18" t="s">
+        <v>4749</v>
+      </c>
       <c r="J428" s="18" t="s">
         <v>726</v>
       </c>
@@ -77288,7 +77868,9 @@
       <c r="H429" s="17">
         <v>40</v>
       </c>
-      <c r="I429" s="18"/>
+      <c r="I429" s="18" t="s">
+        <v>4749</v>
+      </c>
       <c r="J429" s="18" t="s">
         <v>728</v>
       </c>
@@ -77318,7 +77900,9 @@
       <c r="H430" s="17">
         <v>30</v>
       </c>
-      <c r="I430" s="18"/>
+      <c r="I430" s="18" t="s">
+        <v>4749</v>
+      </c>
       <c r="J430" s="18" t="s">
         <v>730</v>
       </c>
@@ -77348,7 +77932,9 @@
       <c r="H431" s="17">
         <v>60</v>
       </c>
-      <c r="I431" s="18"/>
+      <c r="I431" s="18" t="s">
+        <v>4749</v>
+      </c>
       <c r="J431" s="18" t="s">
         <v>732</v>
       </c>
@@ -77378,7 +77964,9 @@
       <c r="H432" s="17">
         <v>60</v>
       </c>
-      <c r="I432" s="18"/>
+      <c r="I432" s="18" t="s">
+        <v>4749</v>
+      </c>
       <c r="J432" s="18" t="s">
         <v>2653</v>
       </c>
@@ -77528,7 +78116,9 @@
       <c r="H437" s="17">
         <v>30</v>
       </c>
-      <c r="I437" s="18"/>
+      <c r="I437" s="18" t="s">
+        <v>4749</v>
+      </c>
       <c r="J437" s="18" t="s">
         <v>743</v>
       </c>
@@ -77558,7 +78148,9 @@
       <c r="H438" s="17">
         <v>40</v>
       </c>
-      <c r="I438" s="18"/>
+      <c r="I438" s="18" t="s">
+        <v>4749</v>
+      </c>
       <c r="J438" s="18" t="s">
         <v>745</v>
       </c>
@@ -77588,7 +78180,9 @@
       <c r="H439" s="17">
         <v>24</v>
       </c>
-      <c r="I439" s="18"/>
+      <c r="I439" s="18" t="s">
+        <v>4749</v>
+      </c>
       <c r="J439" s="18" t="s">
         <v>747</v>
       </c>
@@ -77618,7 +78212,9 @@
       <c r="H440" s="17">
         <v>60</v>
       </c>
-      <c r="I440" s="18"/>
+      <c r="I440" s="18" t="s">
+        <v>4749</v>
+      </c>
       <c r="J440" s="18" t="s">
         <v>749</v>
       </c>
@@ -77648,7 +78244,9 @@
       <c r="H441" s="17">
         <v>30</v>
       </c>
-      <c r="I441" s="18"/>
+      <c r="I441" s="18" t="s">
+        <v>4749</v>
+      </c>
       <c r="J441" s="18" t="s">
         <v>751</v>
       </c>
@@ -77678,7 +78276,9 @@
       <c r="H442" s="17">
         <v>24</v>
       </c>
-      <c r="I442" s="18"/>
+      <c r="I442" s="18" t="s">
+        <v>4749</v>
+      </c>
       <c r="J442" s="18" t="s">
         <v>753</v>
       </c>
@@ -77708,7 +78308,9 @@
       <c r="H443" s="17">
         <v>60</v>
       </c>
-      <c r="I443" s="18"/>
+      <c r="I443" s="18" t="s">
+        <v>4749</v>
+      </c>
       <c r="J443" s="18" t="s">
         <v>2552</v>
       </c>
@@ -77738,7 +78340,9 @@
       <c r="H444" s="17">
         <v>40</v>
       </c>
-      <c r="I444" s="18"/>
+      <c r="I444" s="18" t="s">
+        <v>4749</v>
+      </c>
       <c r="J444" s="18" t="s">
         <v>2655</v>
       </c>
@@ -77768,7 +78372,9 @@
       <c r="H445" s="17">
         <v>40</v>
       </c>
-      <c r="I445" s="18"/>
+      <c r="I445" s="18" t="s">
+        <v>4749</v>
+      </c>
       <c r="J445" s="18" t="s">
         <v>2491</v>
       </c>
@@ -77798,7 +78404,9 @@
       <c r="H446" s="17">
         <v>30</v>
       </c>
-      <c r="I446" s="18"/>
+      <c r="I446" s="18" t="s">
+        <v>4749</v>
+      </c>
       <c r="J446" s="18" t="s">
         <v>2553</v>
       </c>
@@ -77828,7 +78436,9 @@
       <c r="H447" s="17">
         <v>60</v>
       </c>
-      <c r="I447" s="18"/>
+      <c r="I447" s="18" t="s">
+        <v>4749</v>
+      </c>
       <c r="J447" s="18" t="s">
         <v>759</v>
       </c>
@@ -77858,7 +78468,9 @@
       <c r="H448" s="17">
         <v>120</v>
       </c>
-      <c r="I448" s="18"/>
+      <c r="I448" s="18" t="s">
+        <v>4749</v>
+      </c>
       <c r="J448" s="18" t="s">
         <v>2554</v>
       </c>
@@ -77888,7 +78500,9 @@
       <c r="H449" s="17">
         <v>120</v>
       </c>
-      <c r="I449" s="18"/>
+      <c r="I449" s="18" t="s">
+        <v>4749</v>
+      </c>
       <c r="J449" s="18" t="s">
         <v>2555</v>
       </c>
@@ -77918,7 +78532,9 @@
       <c r="H450" s="17">
         <v>30</v>
       </c>
-      <c r="I450" s="18"/>
+      <c r="I450" s="18" t="s">
+        <v>4749</v>
+      </c>
       <c r="J450" s="18" t="s">
         <v>763</v>
       </c>
@@ -77948,7 +78564,9 @@
       <c r="H451" s="17">
         <v>120</v>
       </c>
-      <c r="I451" s="18"/>
+      <c r="I451" s="18" t="s">
+        <v>4749</v>
+      </c>
       <c r="J451" s="18" t="s">
         <v>2523</v>
       </c>
@@ -77978,7 +78596,9 @@
       <c r="H452" s="17">
         <v>60</v>
       </c>
-      <c r="I452" s="18"/>
+      <c r="I452" s="18" t="s">
+        <v>4749</v>
+      </c>
       <c r="J452" s="18" t="s">
         <v>2609</v>
       </c>
@@ -78008,7 +78628,9 @@
       <c r="H453" s="17">
         <v>60</v>
       </c>
-      <c r="I453" s="18"/>
+      <c r="I453" s="18" t="s">
+        <v>4749</v>
+      </c>
       <c r="J453" s="18" t="s">
         <v>767</v>
       </c>
@@ -78038,7 +78660,9 @@
       <c r="H454" s="17">
         <v>60</v>
       </c>
-      <c r="I454" s="18"/>
+      <c r="I454" s="18" t="s">
+        <v>4749</v>
+      </c>
       <c r="J454" s="18" t="s">
         <v>769</v>
       </c>
@@ -78068,7 +78692,9 @@
       <c r="H455" s="17">
         <v>60</v>
       </c>
-      <c r="I455" s="18"/>
+      <c r="I455" s="18" t="s">
+        <v>4749</v>
+      </c>
       <c r="J455" s="18" t="s">
         <v>2609</v>
       </c>
@@ -78098,7 +78724,9 @@
       <c r="H456" s="17">
         <v>120</v>
       </c>
-      <c r="I456" s="18"/>
+      <c r="I456" s="18" t="s">
+        <v>4749</v>
+      </c>
       <c r="J456" s="18" t="s">
         <v>772</v>
       </c>
@@ -78128,7 +78756,9 @@
       <c r="H457" s="17">
         <v>60</v>
       </c>
-      <c r="I457" s="18"/>
+      <c r="I457" s="18" t="s">
+        <v>4749</v>
+      </c>
       <c r="J457" s="18" t="s">
         <v>774</v>
       </c>
@@ -79298,7 +79928,9 @@
       <c r="H496" s="17">
         <v>30</v>
       </c>
-      <c r="I496" s="18"/>
+      <c r="I496" s="18" t="s">
+        <v>4749</v>
+      </c>
       <c r="J496" s="18" t="s">
         <v>826</v>
       </c>
@@ -79328,7 +79960,9 @@
       <c r="H497" s="17">
         <v>30</v>
       </c>
-      <c r="I497" s="18"/>
+      <c r="I497" s="18" t="s">
+        <v>4749</v>
+      </c>
       <c r="J497" s="18" t="s">
         <v>62</v>
       </c>
@@ -79358,7 +79992,9 @@
       <c r="H498" s="17">
         <v>60</v>
       </c>
-      <c r="I498" s="18"/>
+      <c r="I498" s="18" t="s">
+        <v>4749</v>
+      </c>
       <c r="J498" s="18" t="s">
         <v>2660</v>
       </c>
@@ -79388,7 +80024,9 @@
       <c r="H499" s="17">
         <v>30</v>
       </c>
-      <c r="I499" s="18"/>
+      <c r="I499" s="18" t="s">
+        <v>4749</v>
+      </c>
       <c r="J499" s="18" t="s">
         <v>830</v>
       </c>
@@ -79418,7 +80056,9 @@
       <c r="H500" s="17">
         <v>60</v>
       </c>
-      <c r="I500" s="18"/>
+      <c r="I500" s="18" t="s">
+        <v>4749</v>
+      </c>
       <c r="J500" s="18" t="s">
         <v>832</v>
       </c>
@@ -79448,7 +80088,9 @@
       <c r="H501" s="17">
         <v>30</v>
       </c>
-      <c r="I501" s="18"/>
+      <c r="I501" s="18" t="s">
+        <v>4749</v>
+      </c>
       <c r="J501" s="18" t="s">
         <v>475</v>
       </c>
@@ -79478,7 +80120,9 @@
       <c r="H502" s="17">
         <v>40</v>
       </c>
-      <c r="I502" s="18"/>
+      <c r="I502" s="18" t="s">
+        <v>4749</v>
+      </c>
       <c r="J502" s="18" t="s">
         <v>835</v>
       </c>
@@ -79508,7 +80152,9 @@
       <c r="H503" s="17">
         <v>30</v>
       </c>
-      <c r="I503" s="18"/>
+      <c r="I503" s="18" t="s">
+        <v>4749</v>
+      </c>
       <c r="J503" s="18" t="s">
         <v>837</v>
       </c>
@@ -79538,7 +80184,9 @@
       <c r="H504" s="17">
         <v>40</v>
       </c>
-      <c r="I504" s="18"/>
+      <c r="I504" s="18" t="s">
+        <v>4749</v>
+      </c>
       <c r="J504" s="18" t="s">
         <v>839</v>
       </c>
@@ -79568,7 +80216,9 @@
       <c r="H505" s="17">
         <v>30</v>
       </c>
-      <c r="I505" s="18"/>
+      <c r="I505" s="18" t="s">
+        <v>4749</v>
+      </c>
       <c r="J505" s="18" t="s">
         <v>841</v>
       </c>
@@ -79598,7 +80248,9 @@
       <c r="H506" s="17">
         <v>24</v>
       </c>
-      <c r="I506" s="18"/>
+      <c r="I506" s="18" t="s">
+        <v>4749</v>
+      </c>
       <c r="J506" s="18" t="s">
         <v>843</v>
       </c>
@@ -79628,7 +80280,9 @@
       <c r="H507" s="17">
         <v>60</v>
       </c>
-      <c r="I507" s="18"/>
+      <c r="I507" s="18" t="s">
+        <v>4749</v>
+      </c>
       <c r="J507" s="18" t="s">
         <v>845</v>
       </c>
@@ -79658,7 +80312,9 @@
       <c r="H508" s="17">
         <v>40</v>
       </c>
-      <c r="I508" s="18"/>
+      <c r="I508" s="18" t="s">
+        <v>4749</v>
+      </c>
       <c r="J508" s="18" t="s">
         <v>847</v>
       </c>
@@ -79688,7 +80344,9 @@
       <c r="H509" s="17">
         <v>120</v>
       </c>
-      <c r="I509" s="18"/>
+      <c r="I509" s="18" t="s">
+        <v>4749</v>
+      </c>
       <c r="J509" s="18" t="s">
         <v>849</v>
       </c>
@@ -79718,7 +80376,9 @@
       <c r="H510" s="17">
         <v>40</v>
       </c>
-      <c r="I510" s="18"/>
+      <c r="I510" s="18" t="s">
+        <v>4749</v>
+      </c>
       <c r="J510" s="18" t="s">
         <v>851</v>
       </c>
@@ -79748,7 +80408,9 @@
       <c r="H511" s="17">
         <v>60</v>
       </c>
-      <c r="I511" s="18"/>
+      <c r="I511" s="18" t="s">
+        <v>4749</v>
+      </c>
       <c r="J511" s="18" t="s">
         <v>2571</v>
       </c>
@@ -79778,7 +80440,9 @@
       <c r="H512" s="17">
         <v>30</v>
       </c>
-      <c r="I512" s="18"/>
+      <c r="I512" s="18" t="s">
+        <v>4749</v>
+      </c>
       <c r="J512" s="18" t="s">
         <v>2572</v>
       </c>
@@ -79808,7 +80472,9 @@
       <c r="H513" s="17">
         <v>30</v>
       </c>
-      <c r="I513" s="18"/>
+      <c r="I513" s="18" t="s">
+        <v>4749</v>
+      </c>
       <c r="J513" s="18" t="s">
         <v>855</v>
       </c>
@@ -79838,7 +80504,9 @@
       <c r="H514" s="17">
         <v>40</v>
       </c>
-      <c r="I514" s="18"/>
+      <c r="I514" s="18" t="s">
+        <v>4749</v>
+      </c>
       <c r="J514" s="18" t="s">
         <v>857</v>
       </c>
@@ -80138,7 +80806,9 @@
       <c r="H524" s="17">
         <v>40</v>
       </c>
-      <c r="I524" s="18"/>
+      <c r="I524" s="18" t="s">
+        <v>4749</v>
+      </c>
       <c r="J524" s="18" t="s">
         <v>874</v>
       </c>
@@ -80168,7 +80838,9 @@
       <c r="H525" s="17">
         <v>60</v>
       </c>
-      <c r="I525" s="18"/>
+      <c r="I525" s="18" t="s">
+        <v>4749</v>
+      </c>
       <c r="J525" s="18" t="s">
         <v>876</v>
       </c>
@@ -80198,7 +80870,9 @@
       <c r="H526" s="17">
         <v>30</v>
       </c>
-      <c r="I526" s="18"/>
+      <c r="I526" s="18" t="s">
+        <v>4749</v>
+      </c>
       <c r="J526" s="18" t="s">
         <v>878</v>
       </c>
@@ -80228,7 +80902,9 @@
       <c r="H527" s="17">
         <v>40</v>
       </c>
-      <c r="I527" s="18"/>
+      <c r="I527" s="18" t="s">
+        <v>4749</v>
+      </c>
       <c r="J527" s="18" t="s">
         <v>880</v>
       </c>
@@ -80258,7 +80934,9 @@
       <c r="H528" s="17">
         <v>60</v>
       </c>
-      <c r="I528" s="18"/>
+      <c r="I528" s="18" t="s">
+        <v>4749</v>
+      </c>
       <c r="J528" s="18" t="s">
         <v>882</v>
       </c>
@@ -80288,7 +80966,9 @@
       <c r="H529" s="17">
         <v>120</v>
       </c>
-      <c r="I529" s="18"/>
+      <c r="I529" s="18" t="s">
+        <v>4749</v>
+      </c>
       <c r="J529" s="18" t="s">
         <v>884</v>
       </c>
@@ -80318,7 +80998,9 @@
       <c r="H530" s="17">
         <v>120</v>
       </c>
-      <c r="I530" s="18"/>
+      <c r="I530" s="18" t="s">
+        <v>4749</v>
+      </c>
       <c r="J530" s="18" t="s">
         <v>886</v>
       </c>
@@ -80348,7 +81030,9 @@
       <c r="H531" s="17">
         <v>120</v>
       </c>
-      <c r="I531" s="18"/>
+      <c r="I531" s="18" t="s">
+        <v>4749</v>
+      </c>
       <c r="J531" s="18" t="s">
         <v>888</v>
       </c>
@@ -80378,7 +81062,9 @@
       <c r="H532" s="17">
         <v>40</v>
       </c>
-      <c r="I532" s="18"/>
+      <c r="I532" s="18" t="s">
+        <v>4749</v>
+      </c>
       <c r="J532" s="18" t="s">
         <v>890</v>
       </c>
@@ -80408,7 +81094,9 @@
       <c r="H533" s="17">
         <v>120</v>
       </c>
-      <c r="I533" s="18"/>
+      <c r="I533" s="18" t="s">
+        <v>4749</v>
+      </c>
       <c r="J533" s="18" t="s">
         <v>892</v>
       </c>
@@ -80438,7 +81126,9 @@
       <c r="H534" s="17">
         <v>30</v>
       </c>
-      <c r="I534" s="18"/>
+      <c r="I534" s="18" t="s">
+        <v>4749</v>
+      </c>
       <c r="J534" s="18" t="s">
         <v>894</v>
       </c>
@@ -80468,7 +81158,9 @@
       <c r="H535" s="17">
         <v>120</v>
       </c>
-      <c r="I535" s="18"/>
+      <c r="I535" s="18" t="s">
+        <v>4749</v>
+      </c>
       <c r="J535" s="18" t="s">
         <v>896</v>
       </c>
@@ -80498,7 +81190,9 @@
       <c r="H536" s="17">
         <v>30</v>
       </c>
-      <c r="I536" s="18"/>
+      <c r="I536" s="18" t="s">
+        <v>4749</v>
+      </c>
       <c r="J536" s="18" t="s">
         <v>898</v>
       </c>
@@ -80648,7 +81342,9 @@
       <c r="H541" s="17">
         <v>20</v>
       </c>
-      <c r="I541" s="18"/>
+      <c r="I541" s="18" t="s">
+        <v>4749</v>
+      </c>
       <c r="J541" s="18" t="s">
         <v>908</v>
       </c>
@@ -80678,7 +81374,9 @@
       <c r="H542" s="17">
         <v>40</v>
       </c>
-      <c r="I542" s="18"/>
+      <c r="I542" s="18" t="s">
+        <v>4749</v>
+      </c>
       <c r="J542" s="18" t="s">
         <v>910</v>
       </c>
@@ -80708,7 +81406,9 @@
       <c r="H543" s="17">
         <v>30</v>
       </c>
-      <c r="I543" s="18"/>
+      <c r="I543" s="18" t="s">
+        <v>4749</v>
+      </c>
       <c r="J543" s="18" t="s">
         <v>912</v>
       </c>
@@ -80738,7 +81438,9 @@
       <c r="H544" s="17">
         <v>40</v>
       </c>
-      <c r="I544" s="18"/>
+      <c r="I544" s="18" t="s">
+        <v>4749</v>
+      </c>
       <c r="J544" s="18" t="s">
         <v>914</v>
       </c>
@@ -80768,7 +81470,9 @@
       <c r="H545" s="17">
         <v>20</v>
       </c>
-      <c r="I545" s="18"/>
+      <c r="I545" s="18" t="s">
+        <v>4749</v>
+      </c>
       <c r="J545" s="18" t="s">
         <v>916</v>
       </c>
@@ -80798,7 +81502,9 @@
       <c r="H546" s="17">
         <v>120</v>
       </c>
-      <c r="I546" s="18"/>
+      <c r="I546" s="18" t="s">
+        <v>4749</v>
+      </c>
       <c r="J546" s="18" t="s">
         <v>918</v>
       </c>
@@ -80828,7 +81534,9 @@
       <c r="H547" s="17">
         <v>60</v>
       </c>
-      <c r="I547" s="18"/>
+      <c r="I547" s="18" t="s">
+        <v>4749</v>
+      </c>
       <c r="J547" s="18" t="s">
         <v>920</v>
       </c>
@@ -80858,7 +81566,9 @@
       <c r="H548" s="17">
         <v>60</v>
       </c>
-      <c r="I548" s="18"/>
+      <c r="I548" s="18" t="s">
+        <v>4749</v>
+      </c>
       <c r="J548" s="18" t="s">
         <v>922</v>
       </c>
@@ -80888,7 +81598,9 @@
       <c r="H549" s="17">
         <v>60</v>
       </c>
-      <c r="I549" s="18"/>
+      <c r="I549" s="18" t="s">
+        <v>4749</v>
+      </c>
       <c r="J549" s="18" t="s">
         <v>924</v>
       </c>
@@ -80918,7 +81630,9 @@
       <c r="H550" s="17">
         <v>60</v>
       </c>
-      <c r="I550" s="18"/>
+      <c r="I550" s="18" t="s">
+        <v>4749</v>
+      </c>
       <c r="J550" s="18" t="s">
         <v>926</v>
       </c>
@@ -80948,7 +81662,9 @@
       <c r="H551" s="17">
         <v>40</v>
       </c>
-      <c r="I551" s="18"/>
+      <c r="I551" s="18" t="s">
+        <v>4749</v>
+      </c>
       <c r="J551" s="18" t="s">
         <v>927</v>
       </c>
@@ -80978,7 +81694,9 @@
       <c r="H552" s="17">
         <v>40</v>
       </c>
-      <c r="I552" s="18"/>
+      <c r="I552" s="18" t="s">
+        <v>4749</v>
+      </c>
       <c r="J552" s="18" t="s">
         <v>2578</v>
       </c>
@@ -81008,7 +81726,9 @@
       <c r="H553" s="17">
         <v>120</v>
       </c>
-      <c r="I553" s="18"/>
+      <c r="I553" s="18" t="s">
+        <v>4749</v>
+      </c>
       <c r="J553" s="18" t="s">
         <v>930</v>
       </c>
@@ -81038,7 +81758,9 @@
       <c r="H554" s="17">
         <v>60</v>
       </c>
-      <c r="I554" s="18"/>
+      <c r="I554" s="18" t="s">
+        <v>4749</v>
+      </c>
       <c r="J554" s="18" t="s">
         <v>932</v>
       </c>
@@ -81068,7 +81790,9 @@
       <c r="H555" s="17">
         <v>120</v>
       </c>
-      <c r="I555" s="18"/>
+      <c r="I555" s="18" t="s">
+        <v>4749</v>
+      </c>
       <c r="J555" s="18" t="s">
         <v>2579</v>
       </c>
@@ -81308,7 +82032,9 @@
       <c r="H563" s="17">
         <v>60</v>
       </c>
-      <c r="I563" s="18"/>
+      <c r="I563" s="18" t="s">
+        <v>4749</v>
+      </c>
       <c r="J563" s="18" t="s">
         <v>947</v>
       </c>
@@ -81338,7 +82064,9 @@
       <c r="H564" s="17">
         <v>40</v>
       </c>
-      <c r="I564" s="18"/>
+      <c r="I564" s="18" t="s">
+        <v>4749</v>
+      </c>
       <c r="J564" s="18" t="s">
         <v>949</v>
       </c>
@@ -81368,7 +82096,9 @@
       <c r="H565" s="17">
         <v>60</v>
       </c>
-      <c r="I565" s="18"/>
+      <c r="I565" s="18" t="s">
+        <v>4749</v>
+      </c>
       <c r="J565" s="18" t="s">
         <v>951</v>
       </c>
@@ -81398,7 +82128,9 @@
       <c r="H566" s="17">
         <v>60</v>
       </c>
-      <c r="I566" s="18"/>
+      <c r="I566" s="18" t="s">
+        <v>4749</v>
+      </c>
       <c r="J566" s="18" t="s">
         <v>953</v>
       </c>
@@ -81428,7 +82160,9 @@
       <c r="H567" s="17">
         <v>40</v>
       </c>
-      <c r="I567" s="18"/>
+      <c r="I567" s="18" t="s">
+        <v>4749</v>
+      </c>
       <c r="J567" s="18" t="s">
         <v>955</v>
       </c>
@@ -81458,7 +82192,9 @@
       <c r="H568" s="17">
         <v>40</v>
       </c>
-      <c r="I568" s="18"/>
+      <c r="I568" s="18" t="s">
+        <v>4749</v>
+      </c>
       <c r="J568" s="18" t="s">
         <v>957</v>
       </c>
@@ -81488,7 +82224,9 @@
       <c r="H569" s="17">
         <v>60</v>
       </c>
-      <c r="I569" s="18"/>
+      <c r="I569" s="18" t="s">
+        <v>4749</v>
+      </c>
       <c r="J569" s="18" t="s">
         <v>959</v>
       </c>
@@ -81518,7 +82256,9 @@
       <c r="H570" s="17">
         <v>30</v>
       </c>
-      <c r="I570" s="18"/>
+      <c r="I570" s="18" t="s">
+        <v>4749</v>
+      </c>
       <c r="J570" s="18" t="s">
         <v>961</v>
       </c>
@@ -81548,7 +82288,9 @@
       <c r="H571" s="17">
         <v>30</v>
       </c>
-      <c r="I571" s="18"/>
+      <c r="I571" s="18" t="s">
+        <v>4749</v>
+      </c>
       <c r="J571" s="18" t="s">
         <v>963</v>
       </c>
@@ -81578,7 +82320,9 @@
       <c r="H572" s="17">
         <v>60</v>
       </c>
-      <c r="I572" s="18"/>
+      <c r="I572" s="18" t="s">
+        <v>4749</v>
+      </c>
       <c r="J572" s="18" t="s">
         <v>965</v>
       </c>
@@ -81608,7 +82352,9 @@
       <c r="H573" s="17">
         <v>120</v>
       </c>
-      <c r="I573" s="18"/>
+      <c r="I573" s="18" t="s">
+        <v>4749</v>
+      </c>
       <c r="J573" s="18" t="s">
         <v>2580</v>
       </c>
@@ -81638,7 +82384,9 @@
       <c r="H574" s="17">
         <v>120</v>
       </c>
-      <c r="I574" s="18"/>
+      <c r="I574" s="18" t="s">
+        <v>4749</v>
+      </c>
       <c r="J574" s="18" t="s">
         <v>968</v>
       </c>
@@ -81668,7 +82416,9 @@
       <c r="H575" s="17">
         <v>120</v>
       </c>
-      <c r="I575" s="18"/>
+      <c r="I575" s="18" t="s">
+        <v>4749</v>
+      </c>
       <c r="J575" s="18" t="s">
         <v>970</v>
       </c>
@@ -81698,7 +82448,9 @@
       <c r="H576" s="17">
         <v>60</v>
       </c>
-      <c r="I576" s="18"/>
+      <c r="I576" s="18" t="s">
+        <v>4749</v>
+      </c>
       <c r="J576" s="18" t="s">
         <v>2581</v>
       </c>
@@ -81728,7 +82480,9 @@
       <c r="H577" s="17">
         <v>120</v>
       </c>
-      <c r="I577" s="18"/>
+      <c r="I577" s="18" t="s">
+        <v>4749</v>
+      </c>
       <c r="J577" s="18" t="s">
         <v>973</v>
       </c>
@@ -81788,7 +82542,9 @@
       <c r="H579" s="17">
         <v>24</v>
       </c>
-      <c r="I579" s="18"/>
+      <c r="I579" s="18" t="s">
+        <v>4749</v>
+      </c>
       <c r="J579" s="18" t="s">
         <v>978</v>
       </c>
@@ -81818,7 +82574,9 @@
       <c r="H580" s="17">
         <v>24</v>
       </c>
-      <c r="I580" s="18"/>
+      <c r="I580" s="18" t="s">
+        <v>4749</v>
+      </c>
       <c r="J580" s="18" t="s">
         <v>980</v>
       </c>
@@ -81848,7 +82606,9 @@
       <c r="H581" s="17">
         <v>30</v>
       </c>
-      <c r="I581" s="18"/>
+      <c r="I581" s="18" t="s">
+        <v>4749</v>
+      </c>
       <c r="J581" s="18" t="s">
         <v>982</v>
       </c>
@@ -81878,7 +82638,9 @@
       <c r="H582" s="17">
         <v>30</v>
       </c>
-      <c r="I582" s="18"/>
+      <c r="I582" s="18" t="s">
+        <v>4749</v>
+      </c>
       <c r="J582" s="18" t="s">
         <v>984</v>
       </c>
@@ -81908,7 +82670,9 @@
       <c r="H583" s="17">
         <v>40</v>
       </c>
-      <c r="I583" s="18"/>
+      <c r="I583" s="18" t="s">
+        <v>4749</v>
+      </c>
       <c r="J583" s="18" t="s">
         <v>986</v>
       </c>
@@ -81938,7 +82702,9 @@
       <c r="H584" s="17">
         <v>60</v>
       </c>
-      <c r="I584" s="18"/>
+      <c r="I584" s="18" t="s">
+        <v>4749</v>
+      </c>
       <c r="J584" s="18" t="s">
         <v>988</v>
       </c>
@@ -81968,7 +82734,9 @@
       <c r="H585" s="17">
         <v>30</v>
       </c>
-      <c r="I585" s="18"/>
+      <c r="I585" s="18" t="s">
+        <v>4749</v>
+      </c>
       <c r="J585" s="18" t="s">
         <v>2615</v>
       </c>
@@ -81998,7 +82766,9 @@
       <c r="H586" s="17">
         <v>60</v>
       </c>
-      <c r="I586" s="18"/>
+      <c r="I586" s="18" t="s">
+        <v>4749</v>
+      </c>
       <c r="J586" s="18" t="s">
         <v>2497</v>
       </c>
@@ -82028,7 +82798,9 @@
       <c r="H587" s="17">
         <v>60</v>
       </c>
-      <c r="I587" s="18"/>
+      <c r="I587" s="18" t="s">
+        <v>4749</v>
+      </c>
       <c r="J587" s="18" t="s">
         <v>2498</v>
       </c>
@@ -82058,7 +82830,9 @@
       <c r="H588" s="17">
         <v>60</v>
       </c>
-      <c r="I588" s="18"/>
+      <c r="I588" s="18" t="s">
+        <v>4749</v>
+      </c>
       <c r="J588" s="18" t="s">
         <v>2499</v>
       </c>
@@ -82088,7 +82862,9 @@
       <c r="H589" s="17">
         <v>120</v>
       </c>
-      <c r="I589" s="18"/>
+      <c r="I589" s="18" t="s">
+        <v>4749</v>
+      </c>
       <c r="J589" s="18" t="s">
         <v>2500</v>
       </c>
@@ -82118,7 +82894,9 @@
       <c r="H590" s="17">
         <v>120</v>
       </c>
-      <c r="I590" s="18"/>
+      <c r="I590" s="18" t="s">
+        <v>4749</v>
+      </c>
       <c r="J590" s="18" t="s">
         <v>995</v>
       </c>
@@ -82148,7 +82926,9 @@
       <c r="H591" s="17">
         <v>40</v>
       </c>
-      <c r="I591" s="18"/>
+      <c r="I591" s="18" t="s">
+        <v>4749</v>
+      </c>
       <c r="J591" s="18" t="s">
         <v>997</v>
       </c>
@@ -82178,7 +82958,9 @@
       <c r="H592" s="17">
         <v>40</v>
       </c>
-      <c r="I592" s="18"/>
+      <c r="I592" s="18" t="s">
+        <v>4749</v>
+      </c>
       <c r="J592" s="18" t="s">
         <v>999</v>
       </c>
@@ -82208,7 +82990,9 @@
       <c r="H593" s="17">
         <v>120</v>
       </c>
-      <c r="I593" s="18"/>
+      <c r="I593" s="18" t="s">
+        <v>4749</v>
+      </c>
       <c r="J593" s="18" t="s">
         <v>1001</v>
       </c>
@@ -82238,7 +83022,9 @@
       <c r="H594" s="17">
         <v>60</v>
       </c>
-      <c r="I594" s="18"/>
+      <c r="I594" s="18" t="s">
+        <v>4749</v>
+      </c>
       <c r="J594" s="18" t="s">
         <v>2501</v>
       </c>
@@ -82268,7 +83054,9 @@
       <c r="H595" s="17">
         <v>40</v>
       </c>
-      <c r="I595" s="18"/>
+      <c r="I595" s="18" t="s">
+        <v>4749</v>
+      </c>
       <c r="J595" s="18" t="s">
         <v>2502</v>
       </c>
@@ -82298,7 +83086,9 @@
       <c r="H596" s="17">
         <v>60</v>
       </c>
-      <c r="I596" s="18"/>
+      <c r="I596" s="18" t="s">
+        <v>4749</v>
+      </c>
       <c r="J596" s="18" t="s">
         <v>1005</v>
       </c>
@@ -82328,7 +83118,9 @@
       <c r="H597" s="17">
         <v>30</v>
       </c>
-      <c r="I597" s="18"/>
+      <c r="I597" s="18" t="s">
+        <v>4749</v>
+      </c>
       <c r="J597" s="18" t="s">
         <v>1007</v>
       </c>
@@ -82358,7 +83150,9 @@
       <c r="H598" s="17">
         <v>40</v>
       </c>
-      <c r="I598" s="18"/>
+      <c r="I598" s="18" t="s">
+        <v>4749</v>
+      </c>
       <c r="J598" s="18" t="s">
         <v>1009</v>
       </c>
@@ -82388,7 +83182,9 @@
       <c r="H599" s="17">
         <v>60</v>
       </c>
-      <c r="I599" s="18"/>
+      <c r="I599" s="18" t="s">
+        <v>4749</v>
+      </c>
       <c r="J599" s="18" t="s">
         <v>1011</v>
       </c>
@@ -82418,7 +83214,9 @@
       <c r="H600" s="17">
         <v>40</v>
       </c>
-      <c r="I600" s="18"/>
+      <c r="I600" s="18" t="s">
+        <v>4749</v>
+      </c>
       <c r="J600" s="18" t="s">
         <v>2582</v>
       </c>
@@ -82868,7 +83666,9 @@
       <c r="H615" s="17">
         <v>24</v>
       </c>
-      <c r="I615" s="18"/>
+      <c r="I615" s="18" t="s">
+        <v>4749</v>
+      </c>
       <c r="J615" s="18" t="s">
         <v>1034</v>
       </c>
@@ -82898,7 +83698,9 @@
       <c r="H616" s="17">
         <v>40</v>
       </c>
-      <c r="I616" s="18"/>
+      <c r="I616" s="18" t="s">
+        <v>4749</v>
+      </c>
       <c r="J616" s="18" t="s">
         <v>1036</v>
       </c>
@@ -82928,7 +83730,9 @@
       <c r="H617" s="17">
         <v>18</v>
       </c>
-      <c r="I617" s="18"/>
+      <c r="I617" s="18" t="s">
+        <v>4749</v>
+      </c>
       <c r="J617" s="18" t="s">
         <v>1038</v>
       </c>
@@ -82958,7 +83762,9 @@
       <c r="H618" s="17">
         <v>60</v>
       </c>
-      <c r="I618" s="18"/>
+      <c r="I618" s="18" t="s">
+        <v>4749</v>
+      </c>
       <c r="J618" s="18" t="s">
         <v>1040</v>
       </c>
@@ -82988,7 +83794,9 @@
       <c r="H619" s="17">
         <v>120</v>
       </c>
-      <c r="I619" s="18"/>
+      <c r="I619" s="18" t="s">
+        <v>4749</v>
+      </c>
       <c r="J619" s="18" t="s">
         <v>1042</v>
       </c>
@@ -83018,7 +83826,9 @@
       <c r="H620" s="17">
         <v>60</v>
       </c>
-      <c r="I620" s="18"/>
+      <c r="I620" s="18" t="s">
+        <v>4749</v>
+      </c>
       <c r="J620" s="18" t="s">
         <v>1044</v>
       </c>
@@ -83048,7 +83858,9 @@
       <c r="H621" s="17">
         <v>20</v>
       </c>
-      <c r="I621" s="18"/>
+      <c r="I621" s="18" t="s">
+        <v>4749</v>
+      </c>
       <c r="J621" s="18" t="s">
         <v>1046</v>
       </c>
@@ -83078,7 +83890,9 @@
       <c r="H622" s="17">
         <v>40</v>
       </c>
-      <c r="I622" s="18"/>
+      <c r="I622" s="18" t="s">
+        <v>4749</v>
+      </c>
       <c r="J622" s="18" t="s">
         <v>1048</v>
       </c>
@@ -83108,7 +83922,9 @@
       <c r="H623" s="17">
         <v>30</v>
       </c>
-      <c r="I623" s="18"/>
+      <c r="I623" s="18" t="s">
+        <v>4749</v>
+      </c>
       <c r="J623" s="18" t="s">
         <v>1050</v>
       </c>
@@ -83138,7 +83954,9 @@
       <c r="H624" s="17">
         <v>60</v>
       </c>
-      <c r="I624" s="18"/>
+      <c r="I624" s="18" t="s">
+        <v>4749</v>
+      </c>
       <c r="J624" s="18" t="s">
         <v>1052</v>
       </c>
@@ -83168,7 +83986,9 @@
       <c r="H625" s="17">
         <v>40</v>
       </c>
-      <c r="I625" s="18"/>
+      <c r="I625" s="18" t="s">
+        <v>4749</v>
+      </c>
       <c r="J625" s="18" t="s">
         <v>1054</v>
       </c>
@@ -83198,7 +84018,9 @@
       <c r="H626" s="17">
         <v>30</v>
       </c>
-      <c r="I626" s="18"/>
+      <c r="I626" s="18" t="s">
+        <v>4749</v>
+      </c>
       <c r="J626" s="18" t="s">
         <v>1056</v>
       </c>
@@ -83228,7 +84050,9 @@
       <c r="H627" s="17">
         <v>60</v>
       </c>
-      <c r="I627" s="18"/>
+      <c r="I627" s="18" t="s">
+        <v>4749</v>
+      </c>
       <c r="J627" s="18" t="s">
         <v>1058</v>
       </c>
@@ -83258,7 +84082,9 @@
       <c r="H628" s="17">
         <v>120</v>
       </c>
-      <c r="I628" s="18"/>
+      <c r="I628" s="18" t="s">
+        <v>4749</v>
+      </c>
       <c r="J628" s="18" t="s">
         <v>2588</v>
       </c>
@@ -83288,7 +84114,9 @@
       <c r="H629" s="17">
         <v>120</v>
       </c>
-      <c r="I629" s="18"/>
+      <c r="I629" s="18" t="s">
+        <v>4749</v>
+      </c>
       <c r="J629" s="18" t="s">
         <v>1061</v>
       </c>
@@ -83318,7 +84146,9 @@
       <c r="H630" s="17">
         <v>60</v>
       </c>
-      <c r="I630" s="18"/>
+      <c r="I630" s="18" t="s">
+        <v>4749</v>
+      </c>
       <c r="J630" s="18" t="s">
         <v>1063</v>
       </c>
@@ -83348,7 +84178,9 @@
       <c r="H631" s="17">
         <v>60</v>
       </c>
-      <c r="I631" s="18"/>
+      <c r="I631" s="18" t="s">
+        <v>4749</v>
+      </c>
       <c r="J631" s="18" t="s">
         <v>2589</v>
       </c>
@@ -83558,7 +84390,9 @@
       <c r="H638" s="17">
         <v>60</v>
       </c>
-      <c r="I638" s="18"/>
+      <c r="I638" s="18" t="s">
+        <v>4749</v>
+      </c>
       <c r="J638" s="18" t="s">
         <v>1074</v>
       </c>
@@ -83588,7 +84422,9 @@
       <c r="H639" s="17">
         <v>40</v>
       </c>
-      <c r="I639" s="18"/>
+      <c r="I639" s="18" t="s">
+        <v>4749</v>
+      </c>
       <c r="J639" s="18" t="s">
         <v>1076</v>
       </c>
@@ -83618,7 +84454,9 @@
       <c r="H640" s="17">
         <v>60</v>
       </c>
-      <c r="I640" s="18"/>
+      <c r="I640" s="18" t="s">
+        <v>4749</v>
+      </c>
       <c r="J640" s="18" t="s">
         <v>2663</v>
       </c>
@@ -83648,7 +84486,9 @@
       <c r="H641" s="17">
         <v>20</v>
       </c>
-      <c r="I641" s="18"/>
+      <c r="I641" s="18" t="s">
+        <v>4749</v>
+      </c>
       <c r="J641" s="18" t="s">
         <v>1079</v>
       </c>
@@ -83678,7 +84518,9 @@
       <c r="H642" s="17">
         <v>40</v>
       </c>
-      <c r="I642" s="18"/>
+      <c r="I642" s="18" t="s">
+        <v>4749</v>
+      </c>
       <c r="J642" s="18" t="s">
         <v>2592</v>
       </c>
@@ -83708,7 +84550,9 @@
       <c r="H643" s="17">
         <v>60</v>
       </c>
-      <c r="I643" s="18"/>
+      <c r="I643" s="18" t="s">
+        <v>4749</v>
+      </c>
       <c r="J643" s="18" t="s">
         <v>1081</v>
       </c>
@@ -83738,7 +84582,9 @@
       <c r="H644" s="17">
         <v>120</v>
       </c>
-      <c r="I644" s="18"/>
+      <c r="I644" s="18" t="s">
+        <v>4749</v>
+      </c>
       <c r="J644" s="18" t="s">
         <v>1083</v>
       </c>
@@ -83768,7 +84614,9 @@
       <c r="H645" s="17">
         <v>120</v>
       </c>
-      <c r="I645" s="18"/>
+      <c r="I645" s="18" t="s">
+        <v>4749</v>
+      </c>
       <c r="J645" s="18" t="s">
         <v>2594</v>
       </c>
@@ -83798,7 +84646,9 @@
       <c r="H646" s="17">
         <v>60</v>
       </c>
-      <c r="I646" s="18"/>
+      <c r="I646" s="18" t="s">
+        <v>4749</v>
+      </c>
       <c r="J646" s="18" t="s">
         <v>2664</v>
       </c>

--- a/Server/数据.xlsx
+++ b/Server/数据.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66DC4F89-5EE0-4ECC-A2D7-4485501A6564}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CF300FC-C60C-433F-B522-85E35085FBF6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -14709,7 +14709,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>自身 STR_UP(2)</t>
+    <t>自身 STR·ATS↑(2)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -14957,28 +14957,7 @@
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -64391,7 +64370,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B59" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J80" sqref="J80"/>
+      <selection pane="bottomRight" activeCell="I89" sqref="I89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
